--- a/torgi/output.xlsx
+++ b/torgi/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Регион</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Общая площадь</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Окончания подачи заявок</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Кадастровый номер</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Кадастровая стоимость</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Форма проведения</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Имущество</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Форма проведения</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Название</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Окончания подачи заявок</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Общая площадь</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Общие сведения об ограничениях и обременениях </t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Вид ограничений и обременений</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Назначение нежилого помещения</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Кадастровый номер объекта недвижимости (здания, сооружения), в пределах которого расположено помещение</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Кадастровый номер</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Кадастровая стоимость </t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Расположение в пределах объекта недвижимости (этажа, части этажа, нескольких этажей)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Год ввода в эксплуатацию</t>
         </is>
       </c>
     </row>
@@ -521,17 +496,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>283.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>нежилое помещение, площадью 283,20 кв. м, расположенное по адресу: Чувашская Республика, п. Ибреси, ул. СХТ, д. 24, кадастровый № 21:10:000000:1355</t>
+          <t xml:space="preserve">нежилое помещение, площадью 283,20 кв. м, </t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -542,37 +515,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>283.2</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>21:10:000000:1355</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>нежилое помещение</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>21:10:000000:1355</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>21:10:000000:1355</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -585,17 +543,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1227.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>здание нежилое площадью 1227,30 кв. м, расположенное по адресу: Чувашская Республика, Ибресинский район, п. Буинск, ул. Заводская, д. 20, кадастровый № 21:10:200110:155</t>
+          <t xml:space="preserve">здание нежилое площадью 1227,30 кв. м, </t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -606,37 +562,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1227.3</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>21:10:200110:155</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">здание нежилое </t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>21:10:200110:155</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>21:10:200110:155</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -649,17 +590,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>310.9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>здание нежилое площадью 310,90 кв. м, расположенное по адресу: Чувашская Республика, Ибресинский район, п. Буинск, ул. Заводская, д. 20, кадастровый № 21:10:200110:121</t>
+          <t xml:space="preserve">здание нежилое площадью 310,90 кв. м, </t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -670,37 +609,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>21:10:200110:121</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">здание нежилое </t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>21:10:200110:121</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>21:10:200110:121</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -713,17 +637,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>401.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Муниципальное имущество Яльчикского района</t>
+          <t xml:space="preserve">Муниципальное имущество Яльчикского района, </t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -734,37 +656,22 @@
           <t>05/07/22 20:30</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>401.1</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>21:25:180308:517</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>302518043</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>административное</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>21:25:180310:90</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>21:25:180308:517</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>302518043</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1 и 2 этаж</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1969</t>
+          <t>Муниципальное</t>
         </is>
       </c>
     </row>
@@ -779,17 +686,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>676.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Помещение, назначение: нежилое, общая площадь - 676,4 кв. м, этаж 1, номера на поэтажном плане поз. 1 - 13, 15 - 22, кадастровый номер: 12:05:0000000:12935, местоположение: Республика Марий Эл, г. Йошкар-Ола, ул. Красноармейская, д. 103а</t>
+          <t xml:space="preserve">Помещение, назначение: нежилое, общая площадь - 676,4 кв. м, этаж 1, номера на поэтажном плане поз. 1 - 13, 15 - 22, </t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -800,27 +705,22 @@
           <t>11/07/22 14:30</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>676.4</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Имущество в споре или под арестом не состоит, не является предметом залога 
-и не обременено другими правами третьих лиц. 
- </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12:05:0000000:12935</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12:05:0000000:12935</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Муниципальное</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -833,17 +733,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>76.59999999999999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Нежилое помещение площадью 76,6 кв.м., кад. № 12:04:0270104:71 с земельным участком (для размещения хозяйственного магазина) площадью 264 кв.м., кад. № 12:04:0270104:2, расположены по адресу: РМЭ, Медведевский район, с. Азаново, ул. Советская, д.13А, принадлежащие ПК «Медведевское райпо»</t>
+          <t xml:space="preserve">Нежилое помещение площадью 76,6 кв.м. с земельным участком (для размещения хозяйственного магазина) площадью 264 кв.м., </t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -854,39 +752,20 @@
           <t>11/07/22 14:00</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>76.59999999999999</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12:04:0270104:71</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Арест</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12:04:0270104:71 </t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>Должников</t>
         </is>
       </c>
     </row>
@@ -901,17 +780,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>81.09999999999999</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Нежилое помещение площадью 81,1 кв.м., кад. № 12:04:0261801:11, расположено по адресу: РМЭ, Медведевский район, п. Сурок, ул. Мира, д.4, принадлежащее ПК «Медведевское райпо».</t>
+          <t xml:space="preserve">Нежилое помещение площадью 81,1 кв.м., </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -922,35 +799,20 @@
           <t>11/07/22 14:00</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>81.09999999999999</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12:04:0261801:11</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Арест</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>12:04:0261801:11</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>Должников</t>
         </is>
       </c>
     </row>
@@ -965,17 +827,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6.2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1/2 доли в праве общей долевой собственности на нежилое помещение, площадью 6,20 кв. м, находящееся по адресу: Чувашская Республика, г. Чебоксары, ул. Э. М. Юрьева, д. 10, пом. 25, кадастровый номер 21:01:010102:462</t>
+          <t xml:space="preserve">1/2 доли в праве общей долевой собственности на нежилое помещение, площадью 6,20 кв. м, </t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -986,25 +846,22 @@
           <t>19/07/22 14:00</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>6.2</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>21:01:010102:462</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>21:01:010102:462</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>21:01:010102:462</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1017,17 +874,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>нежилое помещение, площадью 20,10 кв. м, расположенное по адресу: Чувашская Республика, г. Новочебоксарск, ул. Строителей, владение 33А, многоэтажная автостоянка  с сервисным обслуживанием, гаражный бокс №71, кадастровый номер 21:02:010510:2846</t>
+          <t xml:space="preserve">нежилое помещение, площадью 20,10 кв. м, </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1038,25 +893,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>20.1</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>21:02:010510:2846</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>21:02:010510:2846</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>21:02:010510:2846</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1069,17 +921,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20.6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Нежилое помещение, площадью 20,60 кв. м, расположенное по адресу: Чувашская Республика, г. Новочебоксарск, ул. Строителей, вл. 33А, многоэтажная автостоянка с сервисным обслуживанием, гаражный бокс № 68, кадастровый номер 21:02:010510:2854</t>
+          <t xml:space="preserve">Нежилое помещение, площадью 20,60 кв. м, </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1090,25 +940,22 @@
           <t>19/07/22 14:00</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>20.6</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>21:02:010510:2854</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>21:02:010510:2854</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>21:02:010510:2854</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1121,17 +968,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1/2 доли в праве общей долевой собственности на нежилое помещение, площадью 6,20 кв. м, находящееся по адресу: Чувашская Республика, г. Чебоксары, ул. Э. М. Юрьева, д. 10, пом. 25, кадастровый номер 21:01:010102:462</t>
+          <t xml:space="preserve">1/2 доли в праве общей долевой собственности на нежилое помещение, площадью 6,20 кв. м, </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1142,25 +987,22 @@
           <t>19/07/22 14:00</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>6.2</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>21:01:010102:462</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>21:01:010102:462</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>21:01:010102:462</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1173,17 +1015,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1382.5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>нежилое здание, картофелехранилище, площадью 1382,5 кв. м, расположенное по адресу: Чувашская Республика, Красночетайский район, с. Пандиково, кадастровый № 21:15:000000:947</t>
+          <t xml:space="preserve">нежилое здание, картофелехранилище, площадью 1382,5 кв. м, </t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1194,25 +1034,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>1382.5</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>21:15:000000:947</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>21:15:000000:947</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>21:15:000000:947</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1225,17 +1062,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>помещение нежилое, площадью 6,2 кв. м, расположенное по адресу: Чувашская Республика, г. Новочебоксарск, ул. 10 Пятилетки, д. 5А, пом. 3, кадастровый № 21:02:010223:2348</t>
+          <t xml:space="preserve">помещение нежилое, площадью 6,2 кв. м, </t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1246,25 +1081,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>6.2</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>21:02:010223:2348</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>21:02:010223:2348</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>21:02:010223:2348</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1277,17 +1109,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>222.2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>здание нежилое площадью 222,20 кв. м, расположенное по адресу: Чувашская Республика, Ибресинский район, п. Буинск, ул. Заводская, д. 20, кадастровый № 21:10:200110:141</t>
+          <t xml:space="preserve">здание нежилое площадью 222,20 кв. м, </t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1298,37 +1128,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>21:10:200110:141</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>здание нежилое площадью</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>21:10:200110:141</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>21:10:200110:141</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1341,17 +1156,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>512.1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>здание нежилое площадью 512,10 кв. м, расположенное по адресу: Чувашская Республика, Ибресинский район, п. Буинск, ул. Заводская, д. 20, кадастровый № 21:10:200110:153</t>
+          <t xml:space="preserve">здание нежилое площадью 512,10 кв. м, </t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1362,37 +1175,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>512.1</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>21:10:200110:153</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лот №5.	здание нежилое площадью </t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>21:10:200110:153</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>21:10:200110:153</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1405,17 +1203,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>237.4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Нежилое помещение, назначение: нежилое, количество этажей - 1, площадь - 237,4 кв. м, инвентарный N Р19/450-3-н, расположенное по адресу: Чувашская Республика - Чувашия, р-н Урмарский, д. Саруй, ул. Молодежная, д. 2а, пом. 2, кадастровый номер 21:19:110301:628</t>
+          <t xml:space="preserve">Нежилое помещение, назначение: нежилое, количество этажей - 1, площадь - 237,4 кв. м, инвентарный N Р19/450-3-н, </t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1426,29 +1222,22 @@
           <t>17/07/22 17:00</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>237.4</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>21:19:110301:628</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>нежилое помещение</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>21:19:110301:628</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+          <t>Муниципальное</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1461,17 +1250,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>473.7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Нежилое помещение, помещение 2б, расположенное на первом этаже двухэтажного кир-пичного нежилого здания, площадь ОКС’а 117,20 кв.м., кадастровый №21:19:170103:2962,Нежилое помещение, помещение 2в, расположенное на первом и втором этажах двухэтажного кирпичного нежилого здания, площадь ОКС’а 77,20 кв.м., кадастровый №21:19:170103:2964,Нежилое помещение, помещение 2г, расположенное на втором этаже двухэтажного кирпичного нежилого здания, площадь ОКС’а 279,30 кв.м., кадастровый №21:19:170103:2963</t>
+          <t>Нежилое помещение, помещение 2б, расположенное на первом этаже двухэтажного кир-пичного нежилого здания, площадь ОКС’а 117,20 кв.м.,Нежилое п</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1482,21 +1269,22 @@
           <t>17/07/22 17:00</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>473.7</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>21:19:170103:2962</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Муниципальное</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1509,17 +1297,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2121.6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Муниципальное имущество Яльчикского района, расположенное по адресу: Чувашская Республика-Чувашия, Яльчикский р-н, с Новое Тинчурино, ул Пришкольная, д 41, пом 1</t>
+          <t xml:space="preserve">Муниципальное имущество Яльчикского района, </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1530,37 +1316,22 @@
           <t>05/07/22 20:30</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>2121.6</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>21:25:060402:249</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1905322866</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>административное</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>21:25:060402:82</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>21:25:060402:249</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>1905322866</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1 и 2 этаж</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1975</t>
+          <t>Муниципальное</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1346,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20.2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Нежилое помещение, площадью 20,20 кв. м, расположенное по адресу: Чувашская Республика, г. Новочебоксарск, гаражный кооператив № 7 "Прогресс", гараж-бокс № 665, кадастровый номер 21:02:010905:1073</t>
+          <t xml:space="preserve">Нежилое помещение, площадью 20,20 кв. м, </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1596,25 +1365,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>20.2</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>21:02:010905:1073</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>21:02:010905:1073</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>21:02:010905:1073</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1627,17 +1393,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2.5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1/2 доля в праве общей долевой собственности на нежилое помещение (кладовая), площадью 2,50 кв. м, расположенное по адресу: Чувашская Республика, г. Чебоксары, проспект Тракторостроителей, д. 34, корпус 1, хозяйственная кладовая № 19, кадастровый номер 21:01:030407:7173</t>
+          <t xml:space="preserve">1/2 доля в праве общей долевой собственности на нежилое помещение (кладовая), площадью 2,50 кв. м, </t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1648,25 +1412,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>2.5</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>21:01:030407:7173</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>21:01:030407:7173</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>21:01:030407:7173</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1679,17 +1440,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>271.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>здание нежилое площадью 271,20 кв. м, расположенное по адресу: Чувашская Республика, Ибресинский район, п. Буинск, ул. Заводская, д. 20, кадастровый № 21:10:200110:159</t>
+          <t xml:space="preserve">здание нежилое площадью 271,20 кв. м, </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1700,37 +1459,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>271.2</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>21:10:200110:159</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">здание нежилое </t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>21:10:200110:159</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>21:10:200110:159</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1743,17 +1487,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>нежилое помещение, площадью 2,10 кв. м, расположенное по адресу: Чувашская Республика, г. Чебоксары, ул. Академика Королева д.4, пом.17, кадастровый № 21:01:010901:2400</t>
+          <t xml:space="preserve">нежилое помещение, площадью 2,10 кв. м, </t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1764,37 +1506,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>21:01:010901:2400</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>нежилое помещение</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>21:01:010901:2400</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>21:01:010901:2400</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1807,17 +1534,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3.2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2/3 доли нежилого помещения площадью 3,2 кв.м., расположенное по адресу: Чувашская Республика, г. Чебоксары, ул. М. Павлова, д. 43, пом.26, кадастровый № 21:01:000000:27943</t>
+          <t xml:space="preserve">2/3 доли нежилого помещения площадью 3,2 кв.м., </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1828,37 +1553,22 @@
           <t>08/07/22 17:00</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>арестованное, наличие ограничений: запрет на регистрационные действия</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>21:01:000000:27943</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> арестованное, наличие ограничений: запрет на регистрационные действия</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Нежилое помещение</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>21:01:000000:27943</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>21:01:000000:27943</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1871,17 +1581,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>237.4</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Нежилое помещение, назначение: нежилое, количество этажей - 1, площадь - 237,4 кв. м, инвентарный N Р19/450-3-н, расположенное по адресу: Чувашская Республика - Чувашия, р-н Урмарский, д. Саруй, ул. Молодежная, д. 2а, пом. 2, кадастровый номер 21:19:110301:628</t>
+          <t xml:space="preserve">Нежилое помещение, назначение: нежилое, количество этажей - 1, площадь - 237,4 кв. м, инвентарный N Р19/450-3-н, </t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1892,29 +1600,22 @@
           <t>17/07/22 17:00</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>237.4</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>21:19:110301:628</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>нежилое помещение</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>21:19:110301:628</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>Муниципальное</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1927,17 +1628,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>473.7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Нежилое помещение, помещение 2б, расположенное на первом этаже двухэтажного кир-пичного нежилого здания, площадь ОКС’а 117,20 кв.м., кадастровый №21:19:170103:2962,Нежилое помещение, помещение 2в, расположенное на первом и втором этажах двухэтажного кирпичного нежилого здания, площадь ОКС’а 77,20 кв.м., кадастровый №21:19:170103:2964,Нежилое помещение, помещение 2г, расположенное на втором этаже двухэтажного кирпичного нежилого здания, площадь ОКС’а 279,30 кв.м., кадастровый №21:19:170103:2963</t>
+          <t>Нежилое помещение, помещение 2б, расположенное на первом этаже двухэтажного кир-пичного нежилого здания, площадь ОКС’а 117,20 кв.м.,Нежилое помещение, помещение 2в, расположенное на первом и втором этажах двухэтажного кирпичного нежилого здания, площадь ОКС’а 77,20 кв.м.,Нежилое помещение, помещение 2г, расположенное на втором этаже двухэтажного кирпичного нежилого здания, площадь ОКС’а 279,30 кв.м.</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1948,21 +1647,22 @@
           <t>17/07/22 17:00</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>473.7</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>21:19:170103:2962</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Муниципальное</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1975,17 +1675,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20.2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Нежилое помещение, площадью 20,20 кв. м, расположенное по адресу: Чувашская Республика, г. Новочебоксарск, гаражный кооператив № 7 "Прогресс", гараж-бокс № 665, кадастровый номер 21:02:010905:1073</t>
+          <t xml:space="preserve">Нежилое помещение, площадью 20,20 кв. м, </t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1996,25 +1694,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>20.2</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>21:02:010905:1073</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>21:02:010905:1073</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>21:02:010905:1073</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2027,17 +1722,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Должников</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1/2 доля в праве общей долевой собственности на нежилое помещение (кладовая), площадью 2,50 кв. м, расположенное по адресу: Чувашская Республика, г. Чебоксары, проспект Тракторостроителей, д. 34, корпус 1, хозяйственная кладовая № 19, кадастровый номер 21:01:030407:7173</t>
+          <t xml:space="preserve">1/2 доля в праве общей долевой собственности на нежилое помещение (кладовая), площадью 2,50 кв. м, </t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2048,25 +1741,22 @@
           <t>13/07/22 14:00</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>2.5</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>21:01:030407:7173</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>21:01:030407:7173</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>21:01:030407:7173</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Должников</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2079,17 +1769,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Муниципальное</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PP</t>
-        </is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>31.2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Муниципальное имущество города Шумерля Чувашской Республики: нежилое помещение в многоквартирном доме общей площадью 31,2 кв.м, кадастровый номер: 21:05:010119:220, расположенное по адресу: Чувашская Республика, город Шумерля, улица Карла Маркса, дом 21.</t>
+          <t xml:space="preserve">Муниципальное имущество города Шумерля Чувашской Республики: нежилое помещение в многоквартирном доме общей площадью 31,2 кв.м, </t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2100,35 +1788,24 @@
           <t>25/07/22 13:00</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21:05:010119:220</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>262418.83</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Нежилое</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>21:05:010239:1677</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>21:05:010119:220</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>262418.83</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1 этаж в МКД</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+          <t>Муниципальное</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/torgi/output.xlsx
+++ b/torgi/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="173">
   <si>
     <t>Регион</t>
   </si>
@@ -55,55 +55,301 @@
     <t>Имущество</t>
   </si>
   <si>
+    <t>Координаты</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.supermarket</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.convenience</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.dentist</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.mobile_phone</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.jewelry</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.residents</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.bus_stop</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.fire_station</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.chemist</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.alcohol</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.parking</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.playground</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.school</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.public_bath</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.fishing</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.pharmacy</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.kindergarten</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.fuel</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.cafe</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.furniture</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.doityourself</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.bar</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.seafood</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.clothes</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.craft</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.bakery</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.veterinary</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.car_parts</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.beauty</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.pub</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.sports_centre</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.courthouse</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.police</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.service</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.car_repair</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.bank</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.recycling</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.paint</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.kiosk</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.atm</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.post_office</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.fast_food</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.lighting</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.car_wash</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.drinking_water</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.tattoo</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.clinic</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.photo_studio</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.shoes</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.restaurant</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.confectionery</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.driving_school</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.department_store</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.florist</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.curtain</t>
+  </si>
+  <si>
+    <t>Коммерческая оценка.dry_cleaning</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Нежилое помещение.</t>
+  </si>
+  <si>
+    <t>Нежилое помещение .</t>
+  </si>
+  <si>
+    <t>Помещение</t>
+  </si>
+  <si>
+    <t>Помещение 1002, нежилое, Этаж № 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помещение, назначение – нежилое., количество этажей – 1, 2по </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помещение, назначение – нежилое., количество этажей - 1по </t>
+  </si>
+  <si>
+    <t>Нежилое помещение, общ., этаж 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цех по производству стального литья, 1-й пусковой  корпус S= 10523,1 кв.мстоимость 62 185 149,66 руб. (вкл. НДС 20%). Земельный участокстоимость 34 472 600,0 руб. </t>
   </si>
   <si>
     <t>Нежилое помещение</t>
   </si>
   <si>
-    <t xml:space="preserve">Нежилое помещение </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Муниципальное имущество города Шумерля Чувашской Республики: нежилое помещение в многоквартирном доме </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Помещение , назначение: нежилое; наименование: нежилое помещение; номер, тип этажа, на котором расположено помещение: этаж № 2; </t>
-  </si>
-  <si>
-    <t>Нежилое помещение, помещение 2б, расположенное на первом этаже двухэтажного кир-пичного нежилого здания.Нежилое помещение, помещение 2в, расположенное на первом и втором этажах двухэтажного кирпичного нежилого здания.Нежилое помещение, помещение 2г, расположенное на втором этаже двухэтажного кирпичного нежилого здания.</t>
-  </si>
-  <si>
-    <t>Нежилое помещение, назначение: нежилое, количество этажей - 1, инвентарный N Р19/450-3-н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">помещения 1 этажа и подвала </t>
-  </si>
-  <si>
-    <t xml:space="preserve">помещения 1 этажа </t>
-  </si>
-  <si>
-    <t xml:space="preserve">помещения 2 этажа </t>
-  </si>
-  <si>
-    <t>Помещение, назначение: нежилое, этаж 1, номера на поэтажном плане поз. 1 - 13, 15 - 22</t>
-  </si>
-  <si>
-    <t>Нежилое помещение .с земельным участком (для размещения хозяйственного магазина) .</t>
-  </si>
-  <si>
-    <t>Нежилое помещение .</t>
+    <t>нежилое помещение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Земельный уч-к </t>
+  </si>
+  <si>
+    <t>Нежилые помещения № 1,2,3,4,5, расположенные на 2-м этаже,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">помещение , назначение: нежилое; наименование: нежилое помещение; номер, тип этажа, на котором расположено помещение: этаж № 1; </t>
+  </si>
+  <si>
+    <t>Помещение, назначение: нежилое, этажей: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежилое здание (Уборная), </t>
+  </si>
+  <si>
+    <t>Нежилое  помещение.</t>
+  </si>
+  <si>
+    <t>Чувашская Республика - Чувашия, г Козловка, ул Маяковского, д 6А, помещ 1</t>
+  </si>
+  <si>
+    <t>г Йошкар-Ола, ул Машиностроителей, д 107А, помещ 1-13</t>
+  </si>
+  <si>
+    <t>Пензенская обл, Бессоновский р-н, с Кижеватово, ул Молодежная, д 28, кв 7</t>
+  </si>
+  <si>
+    <t>Респ Марий Эл, пгт Морки, ул Мира, д 42, помещ 5</t>
+  </si>
+  <si>
+    <t>Республика Марий Эл, Моркинский район, пгт. Морки, ул. Мира, д.42, пом. 2 (поз. 25-30)</t>
+  </si>
+  <si>
+    <t>Пензенская обл, г Заречный, ул Зеленая, д 10Д, помещ 40</t>
+  </si>
+  <si>
+    <t>Респ Татарстан, г Набережные Челны, ул Профильная, д 59</t>
+  </si>
+  <si>
+    <t>г Чебоксары, ул Болгарстроя, д 5, помещ 11</t>
+  </si>
+  <si>
+    <t>г Чебоксары, ул Болгарстроя, д 5, помещ 8</t>
+  </si>
+  <si>
+    <t>Чувашская Республика, г. Чебоксары, ул. Ленинского Комсомола, д. 23, корпус 1, кладовая №9</t>
+  </si>
+  <si>
+    <t>г Чебоксары, ул Болгарстроя, д 5, помещ 10</t>
+  </si>
+  <si>
+    <t>Чувашская Республика - Чувашия, г Новочебоксарск, ул Промышленная, влд 78</t>
+  </si>
+  <si>
+    <t>г Чебоксары, ул Сельская, д 39, помещ 45</t>
+  </si>
+  <si>
+    <t>Республика Татарстан, Заинский муниципальный район, Сармаш-Башское сельское поселение, с. Федоровка, ул. Клубная, д.27а, кв. 1Н .</t>
+  </si>
+  <si>
+    <t>установлено относительно ориентира, расположенного в границах участка. Почтовый адрес ориентира: Пензенская область, р-н Колышлейский, с. Колтовское, ул. Боевая, д. 26А., Нежилое помещение адрес: Пензенская область, Колышлейский район, с.Колтовское, ул.Боевая, 26А, Нежилое помещение адрес: Пензенская область, Колышлейский район, с.Колтовское, ул.Боевая, 26А, Нежилое здание адрес: Пензенская область, р-н. Колышлейский, с. Колтовское, ул. Боевая, д. 27</t>
+  </si>
+  <si>
+    <t>422230, РТ, г. Агрыз, ул. К. Маркса, д.74, расположенные по адресу РТ, г.Агрыз, ул.К.Маркса, д.74</t>
+  </si>
+  <si>
+    <t>Пензенская область, г Пенза, ул. Пушанина, д. 6; .</t>
+  </si>
+  <si>
+    <t>Чувашская Республика, г. Новочебоксарск, ул. Южная, д. 6, пом. 165</t>
+  </si>
+  <si>
+    <t>Республика Крым, р-н Симферопольский, с Перово, ул Таврическая.Площадь 28,9 . Коммуникации и инженерное обеспечение: отсутствуют..</t>
+  </si>
+  <si>
+    <t>расположения: Россия,  Чувашская Республика, Канашский район, д. Новое Урюмово, ул. Кооперативная, д.31 е, пом. 1</t>
   </si>
   <si>
     <t>Чувашская Республика, г. Чебоксары, ул. Ленинского Комсомола, д. 25, корп. 1, пом. 10.4</t>
@@ -124,67 +370,112 @@
     <t>Чувашская Республика, Чебоксарский район, Синьяльское сельское поселение, д. Аркасы, ул. Садовая, д. 35 А, пом. 7</t>
   </si>
   <si>
-    <t>г. Пенза, ул. Ново - Тамбовская, 29</t>
-  </si>
-  <si>
-    <t>Чувашская Республика, город Шумерля, улица Карла Маркса, дом 21.</t>
-  </si>
-  <si>
-    <t>Пензенская область, г. Пенза, Октябрьский район, Пятый Виноградный проезд, д. 18; .</t>
-  </si>
-  <si>
-    <t>Чувашская Республика - Чувашия, р-н Урмарский, д. Саруй, ул. Молодежная, д. 2а, пом. 2</t>
-  </si>
-  <si>
-    <t>по ул.Габдуллы Тукая, д.92, пом.1001</t>
-  </si>
-  <si>
-    <t>по ул.Центральная, д.40а, кв.1001, (ж.м.Отары)</t>
-  </si>
-  <si>
-    <t>по ул.Габдуллы Тукая, д.92, пом.1000</t>
-  </si>
-  <si>
-    <t>по ул.Центральная, д.40а, кв.1002, (ж.м.Отары)</t>
-  </si>
-  <si>
-    <t>по ул.Центральная, д.40а, пом.1003, (ж.м.Отары)</t>
-  </si>
-  <si>
-    <t>Республика Марий Эл, г. Йошкар-Ола, ул. Красноармейская, д. 103а</t>
-  </si>
-  <si>
-    <t>РМЭ, Медведевский район, с. Азаново, ул. Советская, д.13А, принадлежащие ПК «Медведевское райпо»</t>
-  </si>
-  <si>
-    <t>РМЭ, Медведевский район, п. Сурок, ул. Мира, д.4, принадлежащее ПК «Медведевское райпо».</t>
+    <t>29 08 22 14:00</t>
+  </si>
+  <si>
+    <t>25 08 22 21:00</t>
+  </si>
+  <si>
+    <t>24 08 22 14:00</t>
+  </si>
+  <si>
+    <t>27 08 22 05:00</t>
+  </si>
+  <si>
+    <t>23 08 22 14:00</t>
+  </si>
+  <si>
+    <t>08 08 22 14:00</t>
+  </si>
+  <si>
+    <t>19 08 22 09:00</t>
+  </si>
+  <si>
+    <t>15 08 22 14:00</t>
+  </si>
+  <si>
+    <t>22 08 22 14:00</t>
+  </si>
+  <si>
+    <t>17 08 22 14:00</t>
+  </si>
+  <si>
+    <t>14 08 22 05:00</t>
+  </si>
+  <si>
+    <t>12 08 22 20:00</t>
+  </si>
+  <si>
+    <t>11 08 22 20:59</t>
+  </si>
+  <si>
+    <t>09 08 22 05:00</t>
   </si>
   <si>
     <t>01 08 22 14:00</t>
   </si>
   <si>
-    <t>01 08 22 06:00</t>
-  </si>
-  <si>
-    <t>26 07 22 13:00</t>
-  </si>
-  <si>
-    <t>25 07 22 13:00</t>
-  </si>
-  <si>
-    <t>18 07 22 20:00</t>
-  </si>
-  <si>
-    <t>17 07 22 17:00</t>
-  </si>
-  <si>
-    <t>12 07 22 09:00</t>
-  </si>
-  <si>
-    <t>11 07 22 14:30</t>
-  </si>
-  <si>
-    <t>11 07 22 14:00</t>
+    <t xml:space="preserve">21:12:000000:7595 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:05:0301005:413, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58:05:0160203:870, </t>
+  </si>
+  <si>
+    <t>16:05:010504:438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:13:0990117:580, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:13:0990117:577, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58:34:0010141:710, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:52:080201:142, </t>
+  </si>
+  <si>
+    <t>21:01:030702:1810</t>
+  </si>
+  <si>
+    <t>21:01:030702:1809</t>
+  </si>
+  <si>
+    <t>21:01:030310:4184</t>
+  </si>
+  <si>
+    <t>21:01:030702:1806</t>
+  </si>
+  <si>
+    <t>21:02:000000:32513</t>
+  </si>
+  <si>
+    <t>21:02:000000:32517</t>
+  </si>
+  <si>
+    <t>21:01:010103:544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:19:090301:75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58:12:1901007:308, </t>
+  </si>
+  <si>
+    <t>16:01:110301:4410</t>
+  </si>
+  <si>
+    <t>58:29:3008002:4765</t>
+  </si>
+  <si>
+    <t>90:12:130101:188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:11:290501:799, </t>
   </si>
   <si>
     <t>21:01:030310:2531</t>
@@ -205,52 +496,46 @@
     <t>21:02:010510:988</t>
   </si>
   <si>
-    <t xml:space="preserve">21:05:010119:220, </t>
-  </si>
-  <si>
-    <t>58:29:1007005:5650</t>
-  </si>
-  <si>
-    <t>21:19:170103:2962,</t>
-  </si>
-  <si>
-    <t>21:19:110301:628</t>
-  </si>
-  <si>
-    <t>16:50:011716:479</t>
-  </si>
-  <si>
-    <t>16:50:170532:88</t>
-  </si>
-  <si>
-    <t>16:50:011716:165</t>
-  </si>
-  <si>
-    <t>16:50:170532:89</t>
-  </si>
-  <si>
-    <t>16:50:170532:90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:05:0000000:12935, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:04:0270104:71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:04:0261801:11, </t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>PP</t>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>Муниципальное</t>
   </si>
   <si>
     <t>Должников</t>
   </si>
   <si>
-    <t>Муниципальное</t>
+    <t>55.8381033, 48.2433137</t>
+  </si>
+  <si>
+    <t>56.625846, 47.839987</t>
+  </si>
+  <si>
+    <t>53.2089787, 45.3058647</t>
+  </si>
+  <si>
+    <t>None, None</t>
+  </si>
+  <si>
+    <t>56.4371736, 49.0194425</t>
+  </si>
+  <si>
+    <t>53.187823, 45.174578</t>
+  </si>
+  <si>
+    <t>55.652554, 52.2976953</t>
+  </si>
+  <si>
+    <t>56.0709455, 47.2817658</t>
+  </si>
+  <si>
+    <t>56.0790839, 47.5070169</t>
+  </si>
+  <si>
+    <t>56.15064, 47.183184</t>
   </si>
 </sst>
 </file>
@@ -634,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +936,7 @@
     <col min="11" max="11" width="12.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:71">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -688,776 +973,1718 @@
       <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_8/(lotInfo:info)", "21000025550000000040_8")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000018250000000008_1/(lotInfo:info)", "22000018250000000008_1")</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3">
-        <v>44708.77956989247</v>
+        <v>11358</v>
       </c>
       <c r="G2" s="3">
-        <v>8315833</v>
+        <v>374814</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>3531</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>644.1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000052_1/(lotInfo:info)", "21000025550000000052_1")</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>154.6</v>
-      </c>
-      <c r="D3" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_6/(lotInfo:info)", "21000025550000000040_6")</f>
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="3">
-        <v>37106.51358344114</v>
+        <v>18431.40350877193</v>
       </c>
       <c r="G3" s="3">
-        <v>5736667</v>
+        <v>11871667</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T3">
+        <v>254</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
-        <v>194</v>
+        <v>60.4</v>
       </c>
       <c r="D4" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_5/(lotInfo:info)", "21000025550000000040_5")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000050_11/(lotInfo:info)", "21000025550000000050_11")</f>
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3">
-        <v>44707.90206185567</v>
+        <v>21688.74172185431</v>
       </c>
       <c r="G4" s="3">
-        <v>8673333</v>
+        <v>1310000</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1">
-        <v>143.6</v>
+        <v>26.9</v>
       </c>
       <c r="D5" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_7/(lotInfo:info)", "21000025550000000040_7")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000029570000000011_1/(lotInfo:info)", "21000029570000000011_1")</f>
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3">
-        <v>37523.21030640668</v>
+        <v>21521.00371747212</v>
       </c>
       <c r="G5" s="3">
-        <v>5388333</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
+        <v>578915</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>135</v>
+      </c>
+      <c r="K5" s="3">
+        <v>668951.35</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
-        <v>126.2</v>
+        <v>476.6</v>
       </c>
       <c r="D6" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_9/(lotInfo:info)", "21000025550000000040_9")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000022630000000002_10/(lotInfo:info)", "21000022630000000002_10")</f>
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3">
-        <v>37731.11727416798</v>
+        <v>2248.006714225766</v>
       </c>
       <c r="G6" s="3">
-        <v>4761667</v>
+        <v>1071400</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N6" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2379</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
-        <v>22.9</v>
+        <v>120.2</v>
       </c>
       <c r="D7" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_17/(lotInfo:info)", "21000025550000000040_17")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000022630000000002_9/(lotInfo:info)", "21000022630000000002_9")</f>
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
-        <v>10516.7248908297</v>
+        <v>3219.966722129784</v>
       </c>
       <c r="G7" s="3">
-        <v>240833</v>
+        <v>387040</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1">
-        <v>1476.7</v>
+        <v>58.6</v>
       </c>
       <c r="D8" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000123100000000001_1/(lotInfo:info)", "22000123100000000001_1")</f>
-        <v>0</v>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000049_8/(lotInfo:info)", "21000025550000000049_8")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
       </c>
       <c r="F8" s="3">
-        <v>9683.754317058305</v>
+        <v>52849.82935153584</v>
       </c>
       <c r="G8" s="3">
-        <v>14300000</v>
+        <v>3097000</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N8" t="s">
+        <v>168</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>7651</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>3</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1">
-        <v>478.7</v>
+        <v>21826</v>
       </c>
       <c r="D9" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000027070000000001_1/(lotInfo:info)", "22000027070000000001_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000124620000000002_1/(lotInfo:info)", "22000124620000000002_1")</f>
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3">
-        <v>13019.00981825778</v>
+        <v>4428.559958764776</v>
       </c>
       <c r="G9" s="3">
-        <v>6232200</v>
+        <v>96657749.66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N9" t="s">
+        <v>169</v>
+      </c>
+      <c r="T9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1">
-        <v>31.2</v>
+        <v>11.9</v>
       </c>
       <c r="D10" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000012370000000016_1/(lotInfo:info)", "22000012370000000016_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000047_5/(lotInfo:info)", "21000025550000000047_5")</f>
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F10" s="3">
-        <v>26514.00641025641</v>
+        <v>29691.8487394958</v>
       </c>
       <c r="G10" s="3">
-        <v>827237</v>
+        <v>353333</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="3">
-        <v>262418.83</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>795</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
-        <v>397.8</v>
+        <v>14.2</v>
       </c>
       <c r="D11" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000016520000000003_1/(lotInfo:info)", "21000016520000000003_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000047_4/(lotInfo:info)", "21000025550000000047_4")</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3">
-        <v>22536.04826546003</v>
+        <v>29694.85915492958</v>
       </c>
       <c r="G11" s="3">
-        <v>8964840</v>
+        <v>421667</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5481314.05</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>795</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1">
-        <v>117.2</v>
+        <v>11.9</v>
       </c>
       <c r="D12" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000019850000000011_1/(lotInfo:info)", "22000019850000000011_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000047_1/(lotInfo:info)", "21000025550000000047_1")</f>
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3">
-        <v>17496.98805460751</v>
+        <v>27030.84033613445</v>
       </c>
       <c r="G12" s="3">
-        <v>2050647</v>
+        <v>321667</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
-        <v>237.4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000019850000000010_1/(lotInfo:info)", "22000019850000000010_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000047_2/(lotInfo:info)", "21000025550000000047_2")</f>
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3">
-        <v>1578</v>
+        <v>29666.7</v>
       </c>
       <c r="G13" s="3">
-        <v>374617.2</v>
+        <v>296667</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>795</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1">
-        <v>261.6</v>
+        <v>154.3</v>
       </c>
       <c r="D14" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000026240000000018_1/(lotInfo:info)", "21000026240000000018_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000046_13/(lotInfo:info)", "21000025550000000046_13")</f>
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3">
-        <v>35904.12844036697</v>
+        <v>8758.91121192482</v>
       </c>
       <c r="G14" s="3">
-        <v>9392520</v>
+        <v>1351500</v>
       </c>
       <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N14" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14">
         <v>39</v>
       </c>
-      <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
-        <v>46.7</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000026240000000018_4/(lotInfo:info)", "21000026240000000018_4")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000046_12/(lotInfo:info)", "21000025550000000046_12")</f>
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3">
-        <v>37284.7965738758</v>
+        <v>8756.644565217392</v>
       </c>
       <c r="G15" s="3">
-        <v>1741200</v>
+        <v>1208416.95</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15">
+        <v>39</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>2</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1">
-        <v>53.5</v>
+        <v>126.3</v>
       </c>
       <c r="D16" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000026240000000018_2/(lotInfo:info)", "21000026240000000018_2")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000046_11/(lotInfo:info)", "21000025550000000046_11")</f>
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3">
-        <v>38949.53271028037</v>
+        <v>8317.165874901029</v>
       </c>
       <c r="G16" s="3">
-        <v>2083800</v>
+        <v>1050458.05</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>5472</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>2</v>
+      </c>
+      <c r="BG16">
+        <v>3</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BK16">
+        <v>1</v>
+      </c>
+      <c r="BL16">
+        <v>2</v>
+      </c>
+      <c r="BM16">
+        <v>1</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>2</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <v>1</v>
+      </c>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
-        <v>30.7</v>
+        <v>44.7</v>
       </c>
       <c r="D17" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000026240000000018_3/(lotInfo:info)", "21000026240000000018_3")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000012500000000015_4/(lotInfo:info)", "21000012500000000015_4")</f>
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3">
-        <v>37309.44625407166</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>1145400</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
-        <v>60.1</v>
+        <v>3270</v>
       </c>
       <c r="D18" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000026240000000018_5/(lotInfo:info)", "21000026240000000018_5")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000044_3/(lotInfo:info)", "21000025550000000044_3")</f>
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3">
-        <v>37237.93677204659</v>
+        <v>388.3792048929664</v>
       </c>
       <c r="G18" s="3">
-        <v>2238000</v>
+        <v>1270000</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>162</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
-        <v>676.4</v>
+        <v>62.2</v>
       </c>
       <c r="D19" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004300000000002_1/(lotInfo:info)", "21000004300000000002_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000052780000000006_1/(lotInfo:info)", "22000052780000000006_1")</f>
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3">
-        <v>16030.01182732111</v>
+        <v>14405.14469453376</v>
       </c>
       <c r="G19" s="3">
-        <v>10842700</v>
+        <v>896000</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1">
-        <v>76.59999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="D20" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000030_4/(lotInfo:info)", "21000025550000000030_4")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000016520000000004_1/(lotInfo:info)", "21000016520000000004_1")</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3">
-        <v>28002.28459530026</v>
+        <v>31613.97670549085</v>
       </c>
       <c r="G20" s="3">
-        <v>2144975</v>
+        <v>1900000</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
-        <v>81.09999999999999</v>
+        <v>156.5</v>
       </c>
       <c r="D21" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000030_3/(lotInfo:info)", "21000025550000000030_3")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000089360000000001_1/(lotInfo:info)", "22000089360000000001_1")</f>
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3">
-        <v>15843.61220715167</v>
+        <v>26747.60383386581</v>
       </c>
       <c r="G21" s="3">
-        <v>1284916.95</v>
+        <v>4186000</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="s">
+        <v>161</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="M21" t="s">
-        <v>76</v>
+      <c r="C22" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="D22" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000084990000000003_1/(lotInfo:info)", "22000084990000000003_1")</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10508.65051903114</v>
+      </c>
+      <c r="G22" s="3">
+        <v>303700</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="s">
+        <v>161</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="D23" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000125930000000001_1/(lotInfo:info)", "22000125930000000001_1")</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8084.313725490196</v>
+      </c>
+      <c r="G23" s="3">
+        <v>453530</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="3">
+        <v>453530</v>
+      </c>
+      <c r="L23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M23" t="s">
+        <v>161</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1">
+        <v>186</v>
+      </c>
+      <c r="D24" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_8/(lotInfo:info)", "21000025550000000040_8")</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44708.77956989247</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8315833</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1">
+        <v>154.6</v>
+      </c>
+      <c r="D25" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_6/(lotInfo:info)", "21000025550000000040_6")</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="3">
+        <v>37106.51358344114</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5736667</v>
+      </c>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1">
+        <v>194</v>
+      </c>
+      <c r="D26" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_5/(lotInfo:info)", "21000025550000000040_5")</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44707.90206185567</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8673333</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1">
+        <v>143.6</v>
+      </c>
+      <c r="D27" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_7/(lotInfo:info)", "21000025550000000040_7")</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3">
+        <v>37523.21030640668</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5388333</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1">
+        <v>126.2</v>
+      </c>
+      <c r="D28" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_9/(lotInfo:info)", "21000025550000000040_9")</f>
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3">
+        <v>37731.11727416798</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4761667</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="D29" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000025550000000040_17/(lotInfo:info)", "21000025550000000040_17")</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10516.7248908297</v>
+      </c>
+      <c r="G29" s="3">
+        <v>240833</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" t="s">
+        <v>162</v>
+      </c>
+      <c r="N29" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/torgi/output.xlsx
+++ b/torgi/output.xlsx
@@ -17,12 +17,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#\ ##0.0\ \м\2"/>
     <numFmt numFmtId="165" formatCode="#\ ###\ ##0\ \₽"/>
-    <numFmt numFmtId="166" formatCode="_-* # ##0.00 ₽_-;-* # ##0.00 ₽_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #\ ##0.00\ \₽_-;\-* #\ ##0.00\ \₽_-"/>
+    <numFmt numFmtId="167" formatCode="_-* # ##0.00 ₽_-;-* # ##0.00 ₽_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +46,18 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
       <color rgb="000000FF"/>
@@ -86,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -96,6 +109,16 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,10 +496,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -540,10 +563,8 @@
           <t>Кадастровый номер</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>Cтоимость чел/кв.м</t>
-        </is>
+      <c r="K1" s="7" t="n">
+        <v>2.2</v>
       </c>
       <c r="L1" s="4" t="inlineStr">
         <is>
@@ -560,21 +581,12 @@
           <t>Координаты</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>Жителей в округе</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>Коммерческих объектов</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>Описание коммерческих объектов</t>
-        </is>
-      </c>
+      <c r="Q1" s="8">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.93757_48.83902.json", "54.93757_48.83902.json")</f>
+        <v/>
+      </c>
+      <c r="T1" s="4" t="n"/>
+      <c r="U1" s="4" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
@@ -618,7 +630,7 @@
           <t>16:38:130101:773</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="11" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="inlineStr">
@@ -646,15 +658,25 @@
           <t>6</t>
         </is>
       </c>
-      <c r="Q2" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.93757_ 48.83902.json", "54.93757_ 48.83902.json")</f>
+      <c r="Q2" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.93757_48.83902.json", "54.93757_48.83902.json")</f>
         <v/>
       </c>
       <c r="R2" t="n">
         <v>393</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="9" t="n">
         <v>2.96</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -699,7 +721,7 @@
           <t>21:01:010607:257</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="11" t="n">
         <v>7.3</v>
       </c>
       <c r="L3" t="inlineStr">
@@ -726,15 +748,25 @@
           <t>33</t>
         </is>
       </c>
-      <c r="Q3" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.125862_ 47.21173.json", "56.125862_ 47.21173.json")</f>
+      <c r="Q3" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.125862_47.21173.json", "56.125862_47.21173.json")</f>
         <v/>
       </c>
       <c r="R3" t="n">
         <v>2663</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="9" t="n">
         <v>4.82</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -779,7 +811,7 @@
           <t xml:space="preserve">77:03:0005014:11807 </t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="11" t="n">
         <v>6.93</v>
       </c>
       <c r="L4" t="inlineStr">
@@ -806,15 +838,25 @@
           <t>104</t>
         </is>
       </c>
-      <c r="Q4" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79225_ 37.812588.json", "55.79225_ 37.812588.json")</f>
+      <c r="Q4" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79225_37.812588.json", "55.79225_37.812588.json")</f>
         <v/>
       </c>
       <c r="R4" t="n">
         <v>8197</v>
       </c>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="9" t="n">
         <v>13.55</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>16035</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -859,7 +901,7 @@
           <t>50:43:0030304:1156</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="11" t="n">
         <v>7.59</v>
       </c>
       <c r="L5" t="inlineStr">
@@ -886,15 +928,25 @@
           <t>37</t>
         </is>
       </c>
-      <c r="Q5" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.97189_ 37.9131.json", "55.97189_ 37.9131.json")</f>
+      <c r="Q5" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.97189_37.9131.json", "55.97189_37.9131.json")</f>
         <v/>
       </c>
       <c r="R5" t="n">
         <v>3785</v>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="9" t="n">
         <v>7.51</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -939,7 +991,7 @@
           <t>50:57:0000000:7243</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="11" t="n">
         <v>23.82</v>
       </c>
       <c r="L6" t="inlineStr">
@@ -966,15 +1018,25 @@
           <t>8</t>
         </is>
       </c>
-      <c r="Q6" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.107061_ 38.743359.json", "55.107061_ 38.743359.json")</f>
+      <c r="Q6" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.107061_38.743359.json", "55.107061_38.743359.json")</f>
         <v/>
       </c>
       <c r="R6" t="n">
         <v>2272</v>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="9" t="n">
         <v>13.88</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1019,7 +1081,7 @@
           <t>50:35:0030405:1682</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="11" t="n">
         <v>9.609999999999999</v>
       </c>
       <c r="L7" t="inlineStr">
@@ -1046,15 +1108,25 @@
           <t>3</t>
         </is>
       </c>
-      <c r="Q7" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.849313_ 39.305731.json", "54.849313_ 39.305731.json")</f>
+      <c r="Q7" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.849313_39.305731.json", "54.849313_39.305731.json")</f>
         <v/>
       </c>
       <c r="R7" t="n">
         <v>144</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="9" t="n">
         <v>62.52</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1099,7 +1171,7 @@
           <t>16:50:000000:10993</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="K8" s="9" t="n"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>EA</t>
@@ -1108,20 +1180,6 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>М</t>
-        </is>
-      </c>
-      <c r="N8" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=47.52033, 42.190483", "47.52033, 42.190483")</f>
-        <v/>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Q8" s="6">
@@ -1131,7 +1189,7 @@
       <c r="R8" t="n">
         <v>2929</v>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="9" t="n">
         <v>2.29</v>
       </c>
     </row>
@@ -1177,7 +1235,7 @@
           <t>16:50:011816:115</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="11" t="n">
         <v>18.35</v>
       </c>
       <c r="L9" t="inlineStr">
@@ -1204,15 +1262,25 @@
           <t>81</t>
         </is>
       </c>
-      <c r="Q9" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.784577_ 49.109118.json", "55.784577_ 49.109118.json")</f>
+      <c r="Q9" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.784577_49.109118.json", "55.784577_49.109118.json")</f>
         <v/>
       </c>
       <c r="R9" t="n">
         <v>4266</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="S9" s="9" t="n">
         <v>10.79</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1325,7 @@
           <t xml:space="preserve">77:01:0006007:3888 </t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="11" t="n">
         <v>4.24</v>
       </c>
       <c r="L10" t="inlineStr">
@@ -1284,15 +1352,25 @@
           <t>156</t>
         </is>
       </c>
-      <c r="Q10" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.716473_ 37.620393.json", "55.716473_ 37.620393.json")</f>
+      <c r="Q10" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.716473_37.620393.json", "55.716473_37.620393.json")</f>
         <v/>
       </c>
       <c r="R10" t="n">
         <v>6298</v>
       </c>
-      <c r="S10" s="5" t="n">
+      <c r="S10" s="9" t="n">
         <v>7.68</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>11418</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1415,7 @@
           <t>77:08:0002022:3598</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="11" t="n">
         <v>17.52</v>
       </c>
       <c r="L11" t="inlineStr">
@@ -1364,15 +1442,25 @@
           <t>103</t>
         </is>
       </c>
-      <c r="Q11" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.834153_ 37.356441.json", "55.834153_ 37.356441.json")</f>
+      <c r="Q11" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.834153_37.356441.json", "55.834153_37.356441.json")</f>
         <v/>
       </c>
       <c r="R11" t="n">
         <v>9513</v>
       </c>
-      <c r="S11" s="5" t="n">
+      <c r="S11" s="9" t="n">
         <v>15.66</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>8502</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1417,7 +1505,7 @@
           <t>77:10:0000000:2691</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="11" t="n">
         <v>10.31</v>
       </c>
       <c r="L12" t="inlineStr">
@@ -1444,15 +1532,25 @@
           <t>38</t>
         </is>
       </c>
-      <c r="Q12" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.008817_ 37.206737.json", "56.008817_ 37.206737.json")</f>
+      <c r="Q12" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.008817_37.206737.json", "56.008817_37.206737.json")</f>
         <v/>
       </c>
       <c r="R12" t="n">
         <v>2987</v>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="9" t="n">
         <v>31</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>8982</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1497,7 +1595,7 @@
           <t>50:58:0020101:155</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="11" t="n">
         <v>13.42</v>
       </c>
       <c r="L13" t="inlineStr">
@@ -1524,15 +1622,25 @@
           <t>10</t>
         </is>
       </c>
-      <c r="Q13" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.933_ 37.37951.json", "54.933_ 37.37951.json")</f>
+      <c r="Q13" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.933_37.37951.json", "54.933_37.37951.json")</f>
         <v/>
       </c>
       <c r="R13" t="n">
         <v>2912</v>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="9" t="n">
         <v>7.31</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1587</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1577,7 +1685,7 @@
           <t>77:03:0005014:11774</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="11" t="n">
         <v>4.13</v>
       </c>
       <c r="L14" t="inlineStr">
@@ -1604,15 +1712,25 @@
           <t>98</t>
         </is>
       </c>
-      <c r="Q14" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.7912776_ 37.7954093.json", "55.7912776_ 37.7954093.json")</f>
+      <c r="Q14" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.7912776_37.7954093.json", "55.7912776_37.7954093.json")</f>
         <v/>
       </c>
       <c r="R14" t="n">
         <v>4636</v>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="S14" s="9" t="n">
         <v>15.06</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>16920</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1657,7 +1775,7 @@
           <t>50:17:0011505:498</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="11" t="n">
         <v>15.02</v>
       </c>
       <c r="L15" t="inlineStr">
@@ -1684,15 +1802,25 @@
           <t>24</t>
         </is>
       </c>
-      <c r="Q15" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.868945_ 38.782292.json", "55.868945_ 38.782292.json")</f>
+      <c r="Q15" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.868945_38.782292.json", "55.868945_38.782292.json")</f>
         <v/>
       </c>
       <c r="R15" t="n">
         <v>1628</v>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="S15" s="9" t="n">
         <v>25.07</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1737,7 +1865,7 @@
           <t>50:58:0100402:377</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="11" t="n">
         <v>10.62</v>
       </c>
       <c r="L16" t="inlineStr">
@@ -1764,15 +1892,25 @@
           <t>59</t>
         </is>
       </c>
-      <c r="Q16" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.915839_ 37.421874.json", "54.915839_ 37.421874.json")</f>
+      <c r="Q16" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.915839_37.421874.json", "54.915839_37.421874.json")</f>
         <v/>
       </c>
       <c r="R16" t="n">
         <v>3053</v>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="9" t="n">
         <v>10.77</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1817,7 +1955,7 @@
           <t xml:space="preserve">12:13:0990117:580, </t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="11" t="n">
         <v>0.98</v>
       </c>
       <c r="L17" t="inlineStr">
@@ -1844,15 +1982,25 @@
           <t>4</t>
         </is>
       </c>
-      <c r="Q17" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.437214_ 49.019527.json", "56.437214_ 49.019527.json")</f>
+      <c r="Q17" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.437214_49.019527.json", "56.437214_49.019527.json")</f>
         <v/>
       </c>
       <c r="R17" t="n">
         <v>1244</v>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="9" t="n">
         <v>1.81</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2286</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1897,7 +2045,7 @@
           <t>50:53:0020103:2581</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="11" t="n">
         <v>4.74</v>
       </c>
       <c r="L18" t="inlineStr">
@@ -1924,15 +2072,25 @@
           <t>28</t>
         </is>
       </c>
-      <c r="Q18" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.574894_ 37.900665.json", "55.574894_ 37.900665.json")</f>
+      <c r="Q18" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.574894_37.900665.json", "55.574894_37.900665.json")</f>
         <v/>
       </c>
       <c r="R18" t="n">
         <v>4687</v>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="9" t="n">
         <v>6.91</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1977,7 +2135,7 @@
           <t>50:53:0010107:1524</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="11" t="n">
         <v>8.140000000000001</v>
       </c>
       <c r="L19" t="inlineStr">
@@ -2004,15 +2162,25 @@
           <t>43</t>
         </is>
       </c>
-      <c r="Q19" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.576645_ 37.908356.json", "55.576645_ 37.908356.json")</f>
+      <c r="Q19" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.576645_37.908356.json", "55.576645_37.908356.json")</f>
         <v/>
       </c>
       <c r="R19" t="n">
         <v>3482</v>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="9" t="n">
         <v>16.23</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>6939</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2057,7 +2225,7 @@
           <t xml:space="preserve">58:05:0160203:870, </t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="11" t="n">
         <v>14.12</v>
       </c>
       <c r="L20" t="inlineStr">
@@ -2084,15 +2252,25 @@
           <t>3</t>
         </is>
       </c>
-      <c r="Q20" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/53.208954_ 45.305813.json", "53.208954_ 45.305813.json")</f>
+      <c r="Q20" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/53.208954_45.305813.json", "53.208954_45.305813.json")</f>
         <v/>
       </c>
       <c r="R20" t="n">
         <v>323</v>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="9" t="n">
         <v>67.15000000000001</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2137,7 +2315,7 @@
           <t xml:space="preserve">77:06:0008003:1052, </t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="11" t="n">
         <v>34.86</v>
       </c>
       <c r="L21" t="inlineStr">
@@ -2164,15 +2342,25 @@
           <t>45</t>
         </is>
       </c>
-      <c r="Q21" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.649144_ 37.534918.json", "55.649144_ 37.534918.json")</f>
+      <c r="Q21" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.649144_37.534918.json", "55.649144_37.534918.json")</f>
         <v/>
       </c>
       <c r="R21" t="n">
         <v>15589</v>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="9" t="n">
         <v>8.970000000000001</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2217,7 +2405,7 @@
           <t>77:09:0003018:10762</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="11" t="n">
         <v>27.56</v>
       </c>
       <c r="L22" t="inlineStr">
@@ -2244,15 +2432,25 @@
           <t>148</t>
         </is>
       </c>
-      <c r="Q22" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.816696_ 37.50204.json", "55.816696_ 37.50204.json")</f>
+      <c r="Q22" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.816696_37.50204.json", "55.816696_37.50204.json")</f>
         <v/>
       </c>
       <c r="R22" t="n">
         <v>9044</v>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="9" t="n">
         <v>17.68</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>5802</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2297,7 +2495,7 @@
           <t>16:05:010504:438</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="11" t="n">
         <v>23.75</v>
       </c>
       <c r="L23" t="inlineStr">
@@ -2324,15 +2522,25 @@
           <t>18</t>
         </is>
       </c>
-      <c r="Q23" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.30253_ 50.10958.json", "55.30253_ 50.10958.json")</f>
+      <c r="Q23" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.30253_50.10958.json", "55.30253_50.10958.json")</f>
         <v/>
       </c>
       <c r="R23" t="n">
         <v>906</v>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="9" t="n">
         <v>23.75</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2377,7 +2585,7 @@
           <t xml:space="preserve">58:34:0010141:710, </t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="11" t="n">
         <v>6.91</v>
       </c>
       <c r="L24" t="inlineStr">
@@ -2404,15 +2612,25 @@
           <t>35</t>
         </is>
       </c>
-      <c r="Q24" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/53.187823_ 45.174578.json", "53.187823_ 45.174578.json")</f>
+      <c r="Q24" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/53.187823_45.174578.json", "53.187823_45.174578.json")</f>
         <v/>
       </c>
       <c r="R24" t="n">
         <v>3155</v>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="9" t="n">
         <v>16.75</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>7651</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2457,7 +2675,7 @@
           <t>21:02:000000:32513</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="11" t="n">
         <v>224.59</v>
       </c>
       <c r="L25" t="inlineStr">
@@ -2484,15 +2702,25 @@
           <t>14</t>
         </is>
       </c>
-      <c r="Q25" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.07907_ 47.506935.json", "56.07907_ 47.506935.json")</f>
+      <c r="Q25" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.07907_47.506935.json", "56.07907_47.506935.json")</f>
         <v/>
       </c>
       <c r="R25" t="n">
         <v>3527</v>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="9" t="n">
         <v>2.48</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2537,7 +2765,7 @@
           <t>21:02:000000:32517</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="11" t="n">
         <v>224.53</v>
       </c>
       <c r="L26" t="inlineStr">
@@ -2564,15 +2792,25 @@
           <t>14</t>
         </is>
       </c>
-      <c r="Q26" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.07907_ 47.506935.json", "56.07907_ 47.506935.json")</f>
+      <c r="Q26" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.07907_47.506935.json", "56.07907_47.506935.json")</f>
         <v/>
       </c>
       <c r="R26" t="n">
         <v>3527</v>
       </c>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="9" t="n">
         <v>2.48</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2617,7 +2855,7 @@
           <t>21:01:010103:544</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="11" t="n">
         <v>1.52</v>
       </c>
       <c r="L27" t="inlineStr">
@@ -2644,15 +2882,25 @@
           <t>37</t>
         </is>
       </c>
-      <c r="Q27" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.15064_ 47.183184.json", "56.15064_ 47.183184.json")</f>
+      <c r="Q27" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.15064_47.183184.json", "56.15064_47.183184.json")</f>
         <v/>
       </c>
       <c r="R27" t="n">
         <v>2412</v>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="9" t="n">
         <v>3.45</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>5472</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2697,7 +2945,7 @@
           <t>77:01:0003008:3576</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="11" t="n">
         <v>7.17</v>
       </c>
       <c r="L28" t="inlineStr">
@@ -2724,15 +2972,25 @@
           <t>240</t>
         </is>
       </c>
-      <c r="Q28" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.7645572_ 37.6569216.json", "55.7645572_ 37.6569216.json")</f>
+      <c r="Q28" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.7645572_37.6569216.json", "55.7645572_37.6569216.json")</f>
         <v/>
       </c>
       <c r="R28" t="n">
         <v>9190</v>
       </c>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="9" t="n">
         <v>9.83</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>12602</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2777,7 +3035,7 @@
           <t>77:09:0002021:6695</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="11" t="n">
         <v>18.18</v>
       </c>
       <c r="L29" t="inlineStr">
@@ -2804,15 +3062,25 @@
           <t>67</t>
         </is>
       </c>
-      <c r="Q29" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.8738384_ 37.5390459.json", "55.8738384_ 37.5390459.json")</f>
+      <c r="Q29" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.8738384_37.5390459.json", "55.8738384_37.5390459.json")</f>
         <v/>
       </c>
       <c r="R29" t="n">
         <v>10984</v>
       </c>
-      <c r="S29" s="5" t="n">
+      <c r="S29" s="9" t="n">
         <v>13.49</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>8151</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2857,7 +3125,7 @@
           <t>77:06:0008002:1155</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="11" t="n">
         <v>9</v>
       </c>
       <c r="L30" t="inlineStr">
@@ -2884,15 +3152,25 @@
           <t>8</t>
         </is>
       </c>
-      <c r="Q30" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.64669_ 37.54651.json", "55.64669_ 37.54651.json")</f>
+      <c r="Q30" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.64669_37.54651.json", "55.64669_37.54651.json")</f>
         <v/>
       </c>
       <c r="R30" t="n">
         <v>14560</v>
       </c>
-      <c r="S30" s="5" t="n">
+      <c r="S30" s="9" t="n">
         <v>1.66</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2682</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2937,7 +3215,7 @@
           <t>77:02:0025016:1512</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="11" t="n">
         <v>4.97</v>
       </c>
       <c r="L31" t="inlineStr">
@@ -2964,15 +3242,25 @@
           <t>42</t>
         </is>
       </c>
-      <c r="Q31" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.884403_ 37.541566.json", "55.884403_ 37.541566.json")</f>
+      <c r="Q31" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.884403_37.541566.json", "55.884403_37.541566.json")</f>
         <v/>
       </c>
       <c r="R31" t="n">
         <v>10093</v>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="9" t="n">
         <v>3.89</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>7908</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3017,7 +3305,7 @@
           <t xml:space="preserve">77:09:0004011:6556, </t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="11" t="n">
         <v>3.32</v>
       </c>
       <c r="L32" t="inlineStr">
@@ -3044,15 +3332,25 @@
           <t>95</t>
         </is>
       </c>
-      <c r="Q32" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.797574_ 37.569468.json", "55.797574_ 37.569468.json")</f>
+      <c r="Q32" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.797574_37.569468.json", "55.797574_37.569468.json")</f>
         <v/>
       </c>
       <c r="R32" t="n">
         <v>16854</v>
       </c>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="9" t="n">
         <v>2.6</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>13206</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3097,7 +3395,7 @@
           <t xml:space="preserve">77:06:0008003:1053, </t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="11" t="n">
         <v>30.97</v>
       </c>
       <c r="L33" t="inlineStr">
@@ -3124,15 +3422,25 @@
           <t>45</t>
         </is>
       </c>
-      <c r="Q33" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.649144_ 37.534918.json", "55.649144_ 37.534918.json")</f>
+      <c r="Q33" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.649144_37.534918.json", "55.649144_37.534918.json")</f>
         <v/>
       </c>
       <c r="R33" t="n">
         <v>15589</v>
       </c>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="9" t="n">
         <v>7.97</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3177,7 +3485,7 @@
           <t>16:01:110301:4410</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="11" t="n">
         <v>18.61</v>
       </c>
       <c r="L34" t="inlineStr">
@@ -3204,15 +3512,25 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q34" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.52616_ 52.982402.json", "56.52616_ 52.982402.json")</f>
+      <c r="Q34" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.52616_52.982402.json", "56.52616_52.982402.json")</f>
         <v/>
       </c>
       <c r="R34" t="n">
         <v>1347</v>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="9" t="n">
         <v>10.69</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3257,7 +3575,7 @@
           <t>58:29:3008002:4765</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="11" t="n">
         <v>6.44</v>
       </c>
       <c r="L35" t="inlineStr">
@@ -3284,15 +3602,25 @@
           <t>13</t>
         </is>
       </c>
-      <c r="Q35" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/53.132946_ 45.015263.json", "53.132946_ 45.015263.json")</f>
+      <c r="Q35" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/53.132946_45.015263.json", "53.132946_45.015263.json")</f>
         <v/>
       </c>
       <c r="R35" t="n">
         <v>3741</v>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="9" t="n">
         <v>8.449999999999999</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>4911</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3332,7 +3660,7 @@
           <t>11 08 22 20:59</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="11" t="n">
         <v>6.39</v>
       </c>
       <c r="L36" t="inlineStr">
@@ -3359,15 +3687,25 @@
           <t>4</t>
         </is>
       </c>
-      <c r="Q36" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.1064309_ 47.4447934.json", "56.1064309_ 47.4447934.json")</f>
+      <c r="Q36" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.1064309_47.4447934.json", "56.1064309_47.4447934.json")</f>
         <v/>
       </c>
       <c r="R36" t="n">
         <v>5042</v>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="9" t="n">
         <v>5.3</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3412,7 +3750,7 @@
           <t>50:16:0402019:595</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="11" t="n">
         <v>62.56</v>
       </c>
       <c r="L37" t="inlineStr">
@@ -3439,15 +3777,25 @@
           <t>18</t>
         </is>
       </c>
-      <c r="Q37" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.83291_ 38.478302.json", "55.83291_ 38.478302.json")</f>
+      <c r="Q37" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.83291_38.478302.json", "55.83291_38.478302.json")</f>
         <v/>
       </c>
       <c r="R37" t="n">
         <v>861</v>
       </c>
-      <c r="S37" s="5" t="n">
+      <c r="S37" s="9" t="n">
         <v>62.78</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3492,7 +3840,7 @@
           <t>50:16:0301004:2950</t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="11" t="n">
         <v>22.81</v>
       </c>
       <c r="L38" t="inlineStr">
@@ -3519,15 +3867,25 @@
           <t>13</t>
         </is>
       </c>
-      <c r="Q38" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.889523_ 38.48255.json", "55.889523_ 38.48255.json")</f>
+      <c r="Q38" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.889523_38.48255.json", "55.889523_38.48255.json")</f>
         <v/>
       </c>
       <c r="R38" t="n">
         <v>745</v>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="9" t="n">
         <v>74.18000000000001</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3572,7 +3930,7 @@
           <t>50:16:0302008:3674</t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="11" t="n">
         <v>17.59</v>
       </c>
       <c r="L39" t="inlineStr">
@@ -3599,15 +3957,25 @@
           <t>17</t>
         </is>
       </c>
-      <c r="Q39" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.844337_ 38.414143.json", "55.844337_ 38.414143.json")</f>
+      <c r="Q39" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.844337_38.414143.json", "55.844337_38.414143.json")</f>
         <v/>
       </c>
       <c r="R39" t="n">
         <v>740</v>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="9" t="n">
         <v>43.81</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3652,7 +4020,7 @@
           <t>50:16:0000000:67459</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="K40" s="11" t="n">
         <v>21.26</v>
       </c>
       <c r="L40" t="inlineStr">
@@ -3679,15 +4047,25 @@
           <t>16</t>
         </is>
       </c>
-      <c r="Q40" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.878666_ 38.43054.json", "55.878666_ 38.43054.json")</f>
+      <c r="Q40" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.878666_38.43054.json", "55.878666_38.43054.json")</f>
         <v/>
       </c>
       <c r="R40" t="n">
         <v>1058</v>
       </c>
-      <c r="S40" s="5" t="n">
+      <c r="S40" s="9" t="n">
         <v>53.48</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2661</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3732,7 +4110,7 @@
           <t>50:16:0602003:7604</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="K41" s="11" t="n">
         <v>10.11</v>
       </c>
       <c r="L41" t="inlineStr">
@@ -3759,15 +4137,25 @@
           <t>48</t>
         </is>
       </c>
-      <c r="Q41" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.807157_ 38.166847.json", "55.807157_ 38.166847.json")</f>
+      <c r="Q41" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.807157_38.166847.json", "55.807157_38.166847.json")</f>
         <v/>
       </c>
       <c r="R41" t="n">
         <v>1119</v>
       </c>
-      <c r="S41" s="5" t="n">
+      <c r="S41" s="9" t="n">
         <v>27.56</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3812,7 +4200,7 @@
           <t>50:16:0000000:66901</t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="11" t="n">
         <v>11.37</v>
       </c>
       <c r="L42" t="inlineStr">
@@ -3839,15 +4227,25 @@
           <t>15</t>
         </is>
       </c>
-      <c r="Q42" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.877705_ 38.431175.json", "55.877705_ 38.431175.json")</f>
+      <c r="Q42" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.877705_38.431175.json", "55.877705_38.431175.json")</f>
         <v/>
       </c>
       <c r="R42" t="n">
         <v>1058</v>
       </c>
-      <c r="S42" s="5" t="n">
+      <c r="S42" s="9" t="n">
         <v>33.63</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3892,7 +4290,7 @@
           <t>50:43:0020301:649</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="11" t="n">
         <v>10.56</v>
       </c>
       <c r="L43" t="inlineStr">
@@ -3919,15 +4317,25 @@
           <t>44</t>
         </is>
       </c>
-      <c r="Q43" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.967567_ 37.916163.json", "55.967567_ 37.916163.json")</f>
+      <c r="Q43" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.967567_37.916163.json", "55.967567_37.916163.json")</f>
         <v/>
       </c>
       <c r="R43" t="n">
         <v>4343</v>
       </c>
-      <c r="S43" s="5" t="n">
+      <c r="S43" s="9" t="n">
         <v>8.93</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>3675</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3972,7 +4380,7 @@
           <t>77:09:0001020:2318</t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="K44" s="11" t="n">
         <v>4.43</v>
       </c>
       <c r="L44" t="inlineStr">
@@ -3999,15 +4407,25 @@
           <t>45</t>
         </is>
       </c>
-      <c r="Q44" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.84495_ 37.481523.json", "55.84495_ 37.481523.json")</f>
+      <c r="Q44" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.84495_37.481523.json", "55.84495_37.481523.json")</f>
         <v/>
       </c>
       <c r="R44" t="n">
         <v>8383</v>
       </c>
-      <c r="S44" s="5" t="n">
+      <c r="S44" s="9" t="n">
         <v>4.45</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>8418</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -4052,7 +4470,7 @@
           <t>77:09:0003013:2544</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="K45" s="11" t="n">
         <v>10.83</v>
       </c>
       <c r="L45" t="inlineStr">
@@ -4079,15 +4497,25 @@
           <t>182</t>
         </is>
       </c>
-      <c r="Q45" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.817997_ 37.50125.json", "55.817997_ 37.50125.json")</f>
+      <c r="Q45" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.817997_37.50125.json", "55.817997_37.50125.json")</f>
         <v/>
       </c>
       <c r="R45" t="n">
         <v>9085</v>
       </c>
-      <c r="S45" s="5" t="n">
+      <c r="S45" s="9" t="n">
         <v>6.79</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>5694</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4560,7 @@
           <t>77:04:0001019:9656</t>
         </is>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="K46" s="11" t="n">
         <v>5.84</v>
       </c>
       <c r="L46" t="inlineStr">
@@ -4159,15 +4587,25 @@
           <t>57</t>
         </is>
       </c>
-      <c r="Q46" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.72636_ 37.671049.json", "55.72636_ 37.671049.json")</f>
+      <c r="Q46" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.72636_37.671049.json", "55.72636_37.671049.json")</f>
         <v/>
       </c>
       <c r="R46" t="n">
         <v>10557</v>
       </c>
-      <c r="S46" s="5" t="n">
+      <c r="S46" s="9" t="n">
         <v>4.67</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>8451</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -4212,7 +4650,7 @@
           <t>77:02:0010009:3795</t>
         </is>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="K47" s="11" t="n">
         <v>5.47</v>
       </c>
       <c r="L47" t="inlineStr">
@@ -4239,15 +4677,25 @@
           <t>89</t>
         </is>
       </c>
-      <c r="Q47" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.872243_ 37.679323.json", "55.872243_ 37.679323.json")</f>
+      <c r="Q47" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.872243_37.679323.json", "55.872243_37.679323.json")</f>
         <v/>
       </c>
       <c r="R47" t="n">
         <v>11588</v>
       </c>
-      <c r="S47" s="5" t="n">
+      <c r="S47" s="9" t="n">
         <v>2.96</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>6264</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4292,7 +4740,7 @@
           <t>50:35:0000000:20800</t>
         </is>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="K48" s="11" t="n">
         <v>11.08</v>
       </c>
       <c r="L48" t="inlineStr">
@@ -4319,15 +4767,25 @@
           <t>2</t>
         </is>
       </c>
-      <c r="Q48" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.95581_ 39.185681.json", "54.95581_ 39.185681.json")</f>
+      <c r="Q48" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/54.95581_39.185681.json", "54.95581_39.185681.json")</f>
         <v/>
       </c>
       <c r="R48" t="n">
         <v>85</v>
       </c>
-      <c r="S48" s="5" t="n">
+      <c r="S48" s="9" t="n">
         <v>116.11</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4372,7 +4830,7 @@
           <t>50:04:0010202:6923</t>
         </is>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="K49" s="11" t="n">
         <v>6.89</v>
       </c>
       <c r="L49" t="inlineStr">
@@ -4399,15 +4857,25 @@
           <t>13</t>
         </is>
       </c>
-      <c r="Q49" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.341003_ 37.548286.json", "56.341003_ 37.548286.json")</f>
+      <c r="Q49" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.341003_37.548286.json", "56.341003_37.548286.json")</f>
         <v/>
       </c>
       <c r="R49" t="n">
         <v>579</v>
       </c>
-      <c r="S49" s="5" t="n">
+      <c r="S49" s="9" t="n">
         <v>55.77</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4452,7 +4920,7 @@
           <t>50:04:0010202:6922</t>
         </is>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="K50" s="11" t="n">
         <v>6.77</v>
       </c>
       <c r="L50" t="inlineStr">
@@ -4479,15 +4947,25 @@
           <t>13</t>
         </is>
       </c>
-      <c r="Q50" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.341003_ 37.548286.json", "56.341003_ 37.548286.json")</f>
+      <c r="Q50" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/56.341003_37.548286.json", "56.341003_37.548286.json")</f>
         <v/>
       </c>
       <c r="R50" t="n">
         <v>579</v>
       </c>
-      <c r="S50" s="5" t="n">
+      <c r="S50" s="9" t="n">
         <v>54.8</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4532,7 +5010,7 @@
           <t>77:01:0001060:2215</t>
         </is>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="K51" s="11" t="n">
         <v>6.54</v>
       </c>
       <c r="L51" t="inlineStr">
@@ -4559,15 +5037,25 @@
           <t>305</t>
         </is>
       </c>
-      <c r="Q51" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.748701_ 37.5857.json", "55.748701_ 37.5857.json")</f>
+      <c r="Q51" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.748701_37.5857.json", "55.748701_37.5857.json")</f>
         <v/>
       </c>
       <c r="R51" t="n">
         <v>9937</v>
       </c>
-      <c r="S51" s="5" t="n">
+      <c r="S51" s="9" t="n">
         <v>10.88</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>16530</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4612,7 +5100,7 @@
           <t>77:02:0010008:4833</t>
         </is>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="K52" s="11" t="n">
         <v>3.78</v>
       </c>
       <c r="L52" t="inlineStr">
@@ -4639,15 +5127,25 @@
           <t>50</t>
         </is>
       </c>
-      <c r="Q52" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.861974_ 37.676825.json", "55.861974_ 37.676825.json")</f>
+      <c r="Q52" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.861974_37.676825.json", "55.861974_37.676825.json")</f>
         <v/>
       </c>
       <c r="R52" t="n">
         <v>12575</v>
       </c>
-      <c r="S52" s="5" t="n">
+      <c r="S52" s="9" t="n">
         <v>3.62</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>12051</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4692,7 +5190,7 @@
           <t>77:05:0004009:13807; 77:05:0004009:13808</t>
         </is>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="K53" s="11" t="n">
         <v>9.140000000000001</v>
       </c>
       <c r="L53" t="inlineStr">
@@ -4719,15 +5217,25 @@
           <t>33</t>
         </is>
       </c>
-      <c r="Q53" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.685158_ 37.68641.json", "55.685158_ 37.68641.json")</f>
+      <c r="Q53" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.685158_37.68641.json", "55.685158_37.68641.json")</f>
         <v/>
       </c>
       <c r="R53" t="n">
         <v>9074</v>
       </c>
-      <c r="S53" s="5" t="n">
+      <c r="S53" s="9" t="n">
         <v>9.26</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>9192</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4830,7 +5338,7 @@
           <t>77:03:0006014:3030</t>
         </is>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="K55" s="11" t="n">
         <v>16.58</v>
       </c>
       <c r="L55" t="inlineStr">
@@ -4857,15 +5365,25 @@
           <t>28</t>
         </is>
       </c>
-      <c r="Q55" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.613916_ 37.494368.json", "55.613916_ 37.494368.json")</f>
+      <c r="Q55" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.613916_37.494368.json", "55.613916_37.494368.json")</f>
         <v/>
       </c>
       <c r="R55" t="n">
         <v>5819</v>
       </c>
-      <c r="S55" s="5" t="n">
+      <c r="S55" s="9" t="n">
         <v>7.31</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4910,7 +5428,7 @@
           <t>50:46:0010502:1775</t>
         </is>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="K56" s="11" t="n">
         <v>6.41</v>
       </c>
       <c r="L56" t="inlineStr">
@@ -4937,15 +5455,25 @@
           <t>36</t>
         </is>
       </c>
-      <c r="Q56" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.796005_ 38.443806.json", "55.796005_ 38.443806.json")</f>
+      <c r="Q56" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.796005_38.443806.json", "55.796005_38.443806.json")</f>
         <v/>
       </c>
       <c r="R56" t="n">
         <v>4449</v>
       </c>
-      <c r="S56" s="5" t="n">
+      <c r="S56" s="9" t="n">
         <v>6.01</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4990,7 +5518,7 @@
           <t>50:46:0000000:5133</t>
         </is>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="K57" s="11" t="n">
         <v>52.44</v>
       </c>
       <c r="L57" t="inlineStr">
@@ -5017,15 +5545,25 @@
           <t>51</t>
         </is>
       </c>
-      <c r="Q57" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79628_ 38.466183.json", "55.79628_ 38.466183.json")</f>
+      <c r="Q57" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79628_38.466183.json", "55.79628_38.466183.json")</f>
         <v/>
       </c>
       <c r="R57" t="n">
         <v>4323</v>
       </c>
-      <c r="S57" s="5" t="n">
+      <c r="S57" s="9" t="n">
         <v>5.71</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -5070,7 +5608,7 @@
           <t>77:05:0002006:4951</t>
         </is>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="K58" s="11" t="n">
         <v>3.96</v>
       </c>
       <c r="L58" t="inlineStr">
@@ -5097,15 +5635,25 @@
           <t>73</t>
         </is>
       </c>
-      <c r="Q58" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.705047_ 37.669001.json", "55.705047_ 37.669001.json")</f>
+      <c r="Q58" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.705047_37.669001.json", "55.705047_37.669001.json")</f>
         <v/>
       </c>
       <c r="R58" t="n">
         <v>9152</v>
       </c>
-      <c r="S58" s="5" t="n">
+      <c r="S58" s="9" t="n">
         <v>5.47</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>12633</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -5150,7 +5698,7 @@
           <t>77:06:0001006:3792</t>
         </is>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="K59" s="11" t="n">
         <v>6.64</v>
       </c>
       <c r="L59" t="inlineStr">
@@ -5177,15 +5725,25 @@
           <t>107</t>
         </is>
       </c>
-      <c r="Q59" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.67855_ 37.526276.json", "55.67855_ 37.526276.json")</f>
+      <c r="Q59" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.67855_37.526276.json", "55.67855_37.526276.json")</f>
         <v/>
       </c>
       <c r="R59" t="n">
         <v>22860</v>
       </c>
-      <c r="S59" s="5" t="n">
+      <c r="S59" s="9" t="n">
         <v>1.73</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>5970</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -5230,7 +5788,7 @@
           <t>77:03:0005004:5095</t>
         </is>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="K60" s="11" t="n">
         <v>5.71</v>
       </c>
       <c r="L60" t="inlineStr">
@@ -5257,15 +5815,25 @@
           <t>123</t>
         </is>
       </c>
-      <c r="Q60" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.792716_ 37.780194.json", "55.792716_ 37.780194.json")</f>
+      <c r="Q60" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.792716_37.780194.json", "55.792716_37.780194.json")</f>
         <v/>
       </c>
       <c r="R60" t="n">
         <v>6258</v>
       </c>
-      <c r="S60" s="5" t="n">
+      <c r="S60" s="9" t="n">
         <v>11.12</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>12186</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -5310,7 +5878,7 @@
           <t>77:03:0005004:5089, 77:03:0005004:5093</t>
         </is>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="K61" s="11" t="n">
         <v>4.88</v>
       </c>
       <c r="L61" t="inlineStr">
@@ -5337,15 +5905,25 @@
           <t>123</t>
         </is>
       </c>
-      <c r="Q61" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.792716_ 37.780194.json", "55.792716_ 37.780194.json")</f>
+      <c r="Q61" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.792716_37.780194.json", "55.792716_37.780194.json")</f>
         <v/>
       </c>
       <c r="R61" t="n">
         <v>6258</v>
       </c>
-      <c r="S61" s="5" t="n">
+      <c r="S61" s="9" t="n">
         <v>9.51</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>12186</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -5390,7 +5968,7 @@
           <t>50:17:0021502:30</t>
         </is>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="K62" s="11" t="n">
         <v>4.88</v>
       </c>
       <c r="L62" t="inlineStr">
@@ -5417,15 +5995,25 @@
           <t>30</t>
         </is>
       </c>
-      <c r="Q62" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.77192_ 38.656456.json", "55.77192_ 38.656456.json")</f>
+      <c r="Q62" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.77192_38.656456.json", "55.77192_38.656456.json")</f>
         <v/>
       </c>
       <c r="R62" t="n">
         <v>1304</v>
       </c>
-      <c r="S62" s="5" t="n">
+      <c r="S62" s="9" t="n">
         <v>10.64</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -5470,7 +6058,7 @@
           <t>77:03:0005008:7128</t>
         </is>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="K63" s="11" t="n">
         <v>3.78</v>
       </c>
       <c r="L63" t="inlineStr">
@@ -5497,15 +6085,25 @@
           <t>40</t>
         </is>
       </c>
-      <c r="Q63" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.800013_ 37.804844.json", "55.800013_ 37.804844.json")</f>
+      <c r="Q63" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.800013_37.804844.json", "55.800013_37.804844.json")</f>
         <v/>
       </c>
       <c r="R63" t="n">
         <v>9319</v>
       </c>
-      <c r="S63" s="5" t="n">
+      <c r="S63" s="9" t="n">
         <v>4.44</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>10941</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -5550,7 +6148,7 @@
           <t>77:03:0003003:2242</t>
         </is>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="K64" s="11" t="n">
         <v>8.779999999999999</v>
       </c>
       <c r="L64" t="inlineStr">
@@ -5577,15 +6175,25 @@
           <t>91</t>
         </is>
       </c>
-      <c r="Q64" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79057_ 37.668148.json", "55.79057_ 37.668148.json")</f>
+      <c r="Q64" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79057_37.668148.json", "55.79057_37.668148.json")</f>
         <v/>
       </c>
       <c r="R64" t="n">
         <v>4877</v>
       </c>
-      <c r="S64" s="5" t="n">
+      <c r="S64" s="9" t="n">
         <v>16.48</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>9154</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -5630,7 +6238,7 @@
           <t>77:04:0005004:8881</t>
         </is>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="K65" s="11" t="n">
         <v>19.9</v>
       </c>
       <c r="L65" t="inlineStr">
@@ -5657,15 +6265,25 @@
           <t>147</t>
         </is>
       </c>
-      <c r="Q65" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.677854_ 37.857.json", "55.677854_ 37.857.json")</f>
+      <c r="Q65" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.677854_37.857.json", "55.677854_37.857.json")</f>
         <v/>
       </c>
       <c r="R65" t="n">
         <v>3969</v>
       </c>
-      <c r="S65" s="5" t="n">
+      <c r="S65" s="9" t="n">
         <v>36.26</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>7233</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -5710,7 +6328,7 @@
           <t>77:03:0003003:2243</t>
         </is>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="K66" s="11" t="n">
         <v>8.77</v>
       </c>
       <c r="L66" t="inlineStr">
@@ -5737,15 +6355,25 @@
           <t>91</t>
         </is>
       </c>
-      <c r="Q66" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79057_ 37.668148.json", "55.79057_ 37.668148.json")</f>
+      <c r="Q66" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.79057_37.668148.json", "55.79057_37.668148.json")</f>
         <v/>
       </c>
       <c r="R66" t="n">
         <v>4877</v>
       </c>
-      <c r="S66" s="5" t="n">
+      <c r="S66" s="9" t="n">
         <v>16.45</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>9154</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -5790,7 +6418,7 @@
           <t>77:03:0003017:4070</t>
         </is>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="K67" s="11" t="n">
         <v>14.79</v>
       </c>
       <c r="L67" t="inlineStr">
@@ -5817,15 +6445,25 @@
           <t>68</t>
         </is>
       </c>
-      <c r="Q67" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.78359_ 37.727894.json", "55.78359_ 37.727894.json")</f>
+      <c r="Q67" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.78359_37.727894.json", "55.78359_37.727894.json")</f>
         <v/>
       </c>
       <c r="R67" t="n">
         <v>8854</v>
       </c>
-      <c r="S67" s="5" t="n">
+      <c r="S67" s="9" t="n">
         <v>12.33</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>7386</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -5870,7 +6508,7 @@
           <t>77:09:0005003:6567</t>
         </is>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="K68" s="11" t="n">
         <v>6.25</v>
       </c>
       <c r="L68" t="inlineStr">
@@ -5897,15 +6535,25 @@
           <t>109</t>
         </is>
       </c>
-      <c r="Q68" s="6">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.795406_ 37.512543.json", "55.795406_ 37.512543.json")</f>
+      <c r="Q68" s="12">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\objs_in_district/55.795406_37.512543.json", "55.795406_37.512543.json")</f>
         <v/>
       </c>
       <c r="R68" t="n">
         <v>10376</v>
       </c>
-      <c r="S68" s="5" t="n">
+      <c r="S68" s="9" t="n">
         <v>7.66</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>12708</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -6083,12 +6731,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B100"/>
+  <autoFilter ref="A1:B100">
+    <filterColumn colId="1"/>
+  </autoFilter>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/torgi/output.xlsx
+++ b/torgi/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="275">
   <si>
     <t>Регион</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Кадастровый номер</t>
   </si>
   <si>
+    <t>Этаж</t>
+  </si>
+  <si>
     <t>Помещение, назначение – нежилое, площадь – 476,6 кв.м., количество этажей – 1, 2, кадастровый номер 12:13:0990117:580, по адресу: Республика Марий Эл, Моркинский район, пгт. Морки, ул. Мира, д.42, пом. 5 (1 этаж (поз. 2;20); 2 этаж (поз. 31-59)</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>помещения мансарды по ул.Галиаскара Камала, д.20/7, пом.1201, Площадь –160,6 кв.м, кадастровый номер 16:50:011816:115</t>
   </si>
   <si>
+    <t>Нежилое помещение с кадастровым номером 21:06:250407:246, общей площадью 357,2 кв.м. (запись регистрации права собственности Алатырского района Чувашской Республики № 21:06:250407:246-21/044/2020-1 от 02.11.2020), расположенное по адресу: Чувашская Республика, Алатырский район, с.Стемасы, ул. 141 Стрелковой дивизии, д.36, помещение №№ 9-37.</t>
+  </si>
+  <si>
     <t>Продажа нежилого помещения 694,3 кв.м. в г.о. Луховицы</t>
   </si>
   <si>
@@ -115,10 +121,7 @@
     <t>Продажа нежилого помещения 258 кв.м в г.о. Павловский Посад</t>
   </si>
   <si>
-    <t>Продажа нежилого помещения 79,4 кв.м в г.о. Кашира</t>
-  </si>
-  <si>
-    <t>Продажа нежилого помещения 82 кв.м в г.о. Кашира</t>
+    <t>Продажа нежилого помещения 116,1 кв.м. в г.о. Коломна</t>
   </si>
   <si>
     <t>Продажа нежилого помещения 165,5 кв.м в г.о. Серпухов</t>
@@ -136,6 +139,9 @@
     <t>Продажа нежилого помещения 283,7 кв.м. в г.о. Долгопрудный</t>
   </si>
   <si>
+    <t>Продажа нежилого помещения 101,6 кв.м. в г.о. Домодедово</t>
+  </si>
+  <si>
     <t>Продажа нежилого помещения 64,8 кв.м. в г.о. Пушкинский</t>
   </si>
   <si>
@@ -148,12 +154,6 @@
     <t>Продажа нежилого помещения 30,9 кв.м в г.о. Коломна</t>
   </si>
   <si>
-    <t>Продажа нежилого помещения 163,7 кв.м в Дмитровском г.о.</t>
-  </si>
-  <si>
-    <t>Продажа нежилого помещения 138,6  кв.м в Дмитровском г.о.</t>
-  </si>
-  <si>
     <t>Продажа нежилого помещения 95,9 кв.м. в г.о. Лыткарино</t>
   </si>
   <si>
@@ -163,6 +163,9 @@
     <t>Продажа нежилого помещения 156,6 кв.м в г.о. Серпухов</t>
   </si>
   <si>
+    <t>Продажа нежилого помещения 82,9 кв.м в Богородском г.о.</t>
+  </si>
+  <si>
     <t>Продажа нежилого помещения 74,2 кв.м. в Богородском г.о.</t>
   </si>
   <si>
@@ -214,30 +217,15 @@
     <t>В соответствии с Извещением.</t>
   </si>
   <si>
-    <t>Продажа имущества, находящегося в хозяйственном ведении ГУП "ЦУГИ", расположенного по адресу: г. Москва, ул. Лётчика Бабушкина, д. 38, корп. 2, общей площадью 206,8 кв. м (кадастровый номер 77:02:0010009:3795)</t>
-  </si>
-  <si>
-    <t>Продажа нежилого помещения, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенного по адресу: г. Москва, ул. Пулковская, д. 3, корп. 3 (общей площадью 169,80 кв. м.), кадастровый номер: 77:09:0001020:2318</t>
-  </si>
-  <si>
     <t>Продажа нежилого помещения, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенного по адресу: г. Москва, Строгино, ул. Лыковская 2-я, вл. 23, корп. 1, пом. XIII (нежилое помещение общей площадью 17,8 кв. м), кадастровый номер 77:08:0013010:1203</t>
   </si>
   <si>
-    <t>Продажа нежилого помещения, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенного по адресу: г. Москва, ш. Дмитровское, д. 115, корп. 1, общей площадью 128 кв. м., кадастровый номер 77:02:0025016:1512</t>
-  </si>
-  <si>
     <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, пр. Петровско-Разумовский, д. 16, площадью 181,5 кв. м, кадастровый номер: 77:09:0004011:6556, посредством публичного предложения.</t>
   </si>
   <si>
-    <t>Продажа нежилого помещения, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенного по адресу: г.Москва, ул.Коминтерна, д.8, общей площадью 214,4 кв. м. (кадастровый номер 77:02:0010008:4833).</t>
-  </si>
-  <si>
     <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, ул. Мытная, д. 25, корп. 1, общей площадью 152,2 кв. м, кадастровый номер: 77:01:0006007:3888 посредством публичного предложения</t>
   </si>
   <si>
-    <t>Продажа имущества, находящегося в хозяйственном ведении ГУП "ЦУГИ", расположенного по адресу: г. Москва, ул. Дубровская 1-я, д. 5А, общей площадью 91,3 кв. м (кадастровый номер 77:04:0001019:9656)</t>
-  </si>
-  <si>
     <t>Продажа нежилых помещений, находящихся в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенных по адресу:  город Москва, внутригородская территория муниципальный округ Войковский, Ленинградское шоссе, дом 8, корпус 3, площадь 60,40 (кадастровый номер: 77:09:0003013:2544)</t>
   </si>
   <si>
@@ -247,7 +235,7 @@
     <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, ул. Нижние Поля, д. 29, стр. 1 площадью 57,3 кв. м (Этаж № 2), кадастровый номер: 77:04:0004018:1611, посредством публичного предложения</t>
   </si>
   <si>
-    <t>Продажа нежилых помещений, находящихся в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенных по адресу:  г. Москва, ул. Якорная, Дом 9, общей площадью 38,9 кв.м. (кадастровые номера: 77:05:0004009:13807; 77:05:0004009:13808)</t>
+    <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: город Москва, 9-я Чоботовская аллея, дом 1, строение 1, этаж № 1, площадь 52,80 кв.м, кадастровый номер: 77:07:0015005:29883</t>
   </si>
   <si>
     <t>Продажа нежилого помещения, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенного по адресу: г. Москва, ул. Басманная Старая, д. 5, стр. 1, общей площадью 67,1 кв. м., кадастровый номер 77:01:0003008:3576</t>
@@ -262,12 +250,12 @@
     <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, г. Зеленоград, корп. 1403 площадью 21,6 кв. м (Этаж № 1), кадастровый номер: 77:10:0000000:2590</t>
   </si>
   <si>
-    <t>Продажа нежилого помещения, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), расположенного по адресу: г.Москва, пер.Карманицкий, д.3А, стр.4, общей площадью 47,2 кв. м. (кадастровый номер 77:01:0001060:2215).</t>
-  </si>
-  <si>
     <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, ул. Первомайская Нижняя, д. 53, площадью 60,4 кв. м., Этаж № 1, кадастровый номер: 77:03:0005014:11807 посредством публичного предложения</t>
   </si>
   <si>
+    <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, ул. Бартеневская, д. 49, корп. 3, площадью 31,1 кв. м., Этаж № 1, кадастровый номер: 77:06:0012003:8265.</t>
+  </si>
+  <si>
     <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, ул. Бутлерова, д. 22, площадью 54,4 кв. м., Этаж № 1, кадастровый номер: 77:06:0008003:1053, посредством публичного предложения</t>
   </si>
   <si>
@@ -292,6 +280,9 @@
     <t>Продажа объекта нежилого фонда, находящегося в хозяйственном ведении Государственного унитарного предприятия города Москвы «Центр управления городским имуществом» (ГУП «ЦУГИ»), по адресу: г. Москва, ш. Ленинградское, д. 8, корп. 1, общей площадью 13,30 кв. м (кадастровый номер: 77:09:0003018:10762)</t>
   </si>
   <si>
+    <t>Продажа имущества, находящегося в собственности города Москвы, нежилое помещение по адресу: г. Москва, ул. Никитская Б., д. 24/1, стр. 6 площадью 11,1 кв. м (Этаж № 1), кадастровый номер: 77:01:0001069:5226</t>
+  </si>
+  <si>
     <t>В соответствии с пунктом 1 и Приложением № 3 к информационному сообщению</t>
   </si>
   <si>
@@ -304,118 +295,121 @@
     <t>Лот № 2: Нежилое помещение площадью 22,3 кв. м. по адресу: Республика Крым, г. Симферополь, б-р И. Франко, д. 4. Кадастровый номер 90:22:010217:13478.Право собственности: Малышев А.В. Начальная цена продажи – 1 932 000,00 руб. НДС не облагается.Сумма задатка – 966 000,00 руб. Шаг аукциона – 38 640,00 руб.</t>
   </si>
   <si>
-    <t>23 08 22 14:00</t>
-  </si>
-  <si>
-    <t>14 09 22 14:00</t>
-  </si>
-  <si>
-    <t>09 09 22 14:00</t>
-  </si>
-  <si>
-    <t>06 09 22 14:00</t>
-  </si>
-  <si>
-    <t>30 08 22 09:00</t>
-  </si>
-  <si>
-    <t>27 08 22 05:00</t>
-  </si>
-  <si>
-    <t>07 09 22 15:00</t>
-  </si>
-  <si>
-    <t>25 08 22 15:00</t>
-  </si>
-  <si>
-    <t>16 09 22 15:00</t>
-  </si>
-  <si>
-    <t>16 08 22 15:00</t>
-  </si>
-  <si>
-    <t>02 09 22 15:00</t>
-  </si>
-  <si>
-    <t>15 09 22 15:00</t>
-  </si>
-  <si>
-    <t>12 09 22 15:00</t>
-  </si>
-  <si>
-    <t>08 09 22 15:00</t>
-  </si>
-  <si>
-    <t>26 08 22 15:00</t>
-  </si>
-  <si>
-    <t>05 09 22 15:00</t>
-  </si>
-  <si>
-    <t>17 08 22 15:00</t>
-  </si>
-  <si>
-    <t>12 09 22 14:00</t>
-  </si>
-  <si>
-    <t>09 09 22 20:00</t>
-  </si>
-  <si>
-    <t>24 08 22 14:00</t>
-  </si>
-  <si>
-    <t>26 08 22 14:00</t>
-  </si>
-  <si>
-    <t>22 08 22 14:30</t>
-  </si>
-  <si>
-    <t>16 08 22 12:00</t>
-  </si>
-  <si>
-    <t>15 09 22 12:00</t>
-  </si>
-  <si>
-    <t>19 08 22 12:00</t>
-  </si>
-  <si>
-    <t>23 08 22 12:00</t>
-  </si>
-  <si>
-    <t>17 08 22 12:00</t>
-  </si>
-  <si>
-    <t>08 09 22 12:00</t>
-  </si>
-  <si>
-    <t>30 08 22 12:00</t>
-  </si>
-  <si>
-    <t>12 09 22 12:00</t>
-  </si>
-  <si>
-    <t>24 08 22 12:00</t>
-  </si>
-  <si>
-    <t>13 09 22 12:00</t>
-  </si>
-  <si>
-    <t>06 09 22 12:00</t>
-  </si>
-  <si>
-    <t>14 09 22 12:00</t>
-  </si>
-  <si>
-    <t>31 08 22 12:00</t>
-  </si>
-  <si>
-    <t>29 08 22 12:00</t>
-  </si>
-  <si>
-    <t>12 09 22 06:00</t>
-  </si>
-  <si>
-    <t>Респ Марий Эл, пгт Морки, ул Мира, д 42, помещ 5</t>
+    <t>23.08.22 14:00</t>
+  </si>
+  <si>
+    <t>14.09.22 14:00</t>
+  </si>
+  <si>
+    <t>09.09.22 14:00</t>
+  </si>
+  <si>
+    <t>06.09.22 14:00</t>
+  </si>
+  <si>
+    <t>30.08.22 09:00</t>
+  </si>
+  <si>
+    <t>27.08.22 05:00</t>
+  </si>
+  <si>
+    <t>12.09.22 14:00</t>
+  </si>
+  <si>
+    <t>07.09.22 15:00</t>
+  </si>
+  <si>
+    <t>26.09.22 15:00</t>
+  </si>
+  <si>
+    <t>16.09.22 15:00</t>
+  </si>
+  <si>
+    <t>21.09.22 15:00</t>
+  </si>
+  <si>
+    <t>02.09.22 15:00</t>
+  </si>
+  <si>
+    <t>15.09.22 15:00</t>
+  </si>
+  <si>
+    <t>22.09.22 15:00</t>
+  </si>
+  <si>
+    <t>12.09.22 15:00</t>
+  </si>
+  <si>
+    <t>19.09.22 15:00</t>
+  </si>
+  <si>
+    <t>08.09.22 15:00</t>
+  </si>
+  <si>
+    <t>26.08.22 15:00</t>
+  </si>
+  <si>
+    <t>05.09.22 15:00</t>
+  </si>
+  <si>
+    <t>20.09.22 15:00</t>
+  </si>
+  <si>
+    <t>09.09.22 20:00</t>
+  </si>
+  <si>
+    <t>24.08.22 14:00</t>
+  </si>
+  <si>
+    <t>26.08.22 14:00</t>
+  </si>
+  <si>
+    <t>22.08.22 14:30</t>
+  </si>
+  <si>
+    <t>15.09.22 12:00</t>
+  </si>
+  <si>
+    <t>23.08.22 12:00</t>
+  </si>
+  <si>
+    <t>08.09.22 12:00</t>
+  </si>
+  <si>
+    <t>30.08.22 12:00</t>
+  </si>
+  <si>
+    <t>12.09.22 12:00</t>
+  </si>
+  <si>
+    <t>22.09.22 12:00</t>
+  </si>
+  <si>
+    <t>24.08.22 12:00</t>
+  </si>
+  <si>
+    <t>13.09.22 12:00</t>
+  </si>
+  <si>
+    <t>06.09.22 12:00</t>
+  </si>
+  <si>
+    <t>14.09.22 12:00</t>
+  </si>
+  <si>
+    <t>26.09.22 12:00</t>
+  </si>
+  <si>
+    <t>31.08.22 12:00</t>
+  </si>
+  <si>
+    <t>29.08.22 12:00</t>
+  </si>
+  <si>
+    <t>12.09.22 06:00</t>
+  </si>
+  <si>
+    <t>Респ Марий Эл, пгт Морки, ул Мира, д 42</t>
   </si>
   <si>
     <t>Респ Марий Эл, пгт Новый Торъял, ул Юбилейная, д 4</t>
@@ -442,6 +436,9 @@
     <t>г Казань, ул Галиаскара Камала, д 20/7, помещ 1201</t>
   </si>
   <si>
+    <t>Чувашская республика - Чувашия, Алатырский р-н, село Стемасы, ул 141 Стрелковой дивизии, д 36</t>
+  </si>
+  <si>
     <t>Московская обл, г Луховицы, поселок Орешково, ул Парковая, д 2</t>
   </si>
   <si>
@@ -451,10 +448,7 @@
     <t>Московская область, р-н Павлово-Посадский, г Павловский Посад, ул Орджоникидзе, д 3/1, пом II</t>
   </si>
   <si>
-    <t>Московская обл, г Кашира, ул Сергея Ионова, д 3</t>
-  </si>
-  <si>
-    <t>Московская обл, г Кашира, ул Клубная, д 1</t>
+    <t>Московская область, р-н Коломенский, с Макшеево, д 44, пом 1</t>
   </si>
   <si>
     <t>Московская обл, г Серпухов, ул Крюкова, д 1, помещ 3</t>
@@ -472,6 +466,9 @@
     <t>Московская обл, г Долгопрудный, ул Дирижабельная, д 26</t>
   </si>
   <si>
+    <t>Московская область, город Домодедово, микрорайон Белые Столбы, улица Проспект Госфильмофонда, д. ИТР, пом. 01</t>
+  </si>
+  <si>
     <t>Московская обл, г Пушкино, г Ивантеевка, Детский проезд, д 24, помещ 001</t>
   </si>
   <si>
@@ -484,12 +481,6 @@
     <t>Московская обл, г Коломна, ул Октябрьской революции, д 154, кв 2</t>
   </si>
   <si>
-    <t>Московская обл, г Дмитров, ул Космонавтов, д 52, помещ 18</t>
-  </si>
-  <si>
-    <t>Московская обл, г Дмитров, ул Космонавтов, д 52, помещ 19</t>
-  </si>
-  <si>
     <t>Московская область, городской округ Лыткарино, г Лыткарино, ул Ухтомского, д 25, пом III</t>
   </si>
   <si>
@@ -499,6 +490,9 @@
     <t>Московская обл, г Серпухов, ул Революции, д 21/67</t>
   </si>
   <si>
+    <t>Московская обл, г Ногинск, ул Октябрьская, д 85</t>
+  </si>
+  <si>
     <t>Московская обл, г Ногинск, ул Декабристов, д 108</t>
   </si>
   <si>
@@ -535,42 +529,30 @@
     <t>Пензенская обл, г Сердобск, ул К.Маркса</t>
   </si>
   <si>
-    <t>Пензенская обл, г Пенза, ул. 9 Января/ ул. Крупской, д. 13/15</t>
-  </si>
-  <si>
-    <t>Пензенская обл, Бессоновский р-н, село Кижеватово, ул Молодежная, д 28, кв 7</t>
-  </si>
-  <si>
-    <t>Пензенская обл, г Заречный, ул Зеленая, д 10д, помещ 40</t>
-  </si>
-  <si>
-    <t>Москва, Коньково, ул. Введенского, д. 3, корп. 6, пом. I</t>
-  </si>
-  <si>
-    <t>г Москва, ул Лётчика Бабушкина, д 38 к 2, помещ 1/П</t>
-  </si>
-  <si>
-    <t>г Москва, ул Пулковская, д 3 к 3, помещ 2П</t>
-  </si>
-  <si>
-    <t>г. Москва, Строгино, ул. Лыковская 2-я, вл. 23, корп. 1, пом. XIII</t>
-  </si>
-  <si>
-    <t>г Москва, Дмитровское шоссе, д 115 к 1</t>
+    <t>Пензенская область, г Пенза, ул. 9 Января/ ул. Крупской, д. 13/15, Кадастровые номера 58:29:1005014:1102,  58:29:1005014:1100</t>
+  </si>
+  <si>
+    <t>Пензенская обл, Бессоновский р-н, село Кижеватово, ул Молодежная, д 28</t>
+  </si>
+  <si>
+    <t>Пензенская область, г Пенза, ул. 9 Января/ ул. Крупской, д. 13/15, кадастровые номера 58:29:1005014:1101, 58:29:1005014:678.</t>
+  </si>
+  <si>
+    <t>Пензенская обл, г Заречный, ул Зеленая, д 10д</t>
+  </si>
+  <si>
+    <t>г Москва, ул Введенского, д 3 к 6</t>
+  </si>
+  <si>
+    <t>г Москва, ул Лыковская 2-я, двлд 23 к 1</t>
   </si>
   <si>
     <t>г Москва, Петровско-Разумовский проезд, д 16, помещ 7П</t>
   </si>
   <si>
-    <t>г Москва, ул Коминтерна, д 8, помещ 1П</t>
-  </si>
-  <si>
     <t>г Москва, ул Мытная, д 25 к 1</t>
   </si>
   <si>
-    <t>г Москва, ул 1-я Дубровская, д 5А, помещ 2/П</t>
-  </si>
-  <si>
     <t>г Москва, Ленинградское шоссе, д 8 к 3, помещ 4П</t>
   </si>
   <si>
@@ -580,7 +562,7 @@
     <t>г Москва, ул Нижние Поля, д 29 стр 1, помещ 2/2</t>
   </si>
   <si>
-    <t>г Москва, ул Якорная, д 9</t>
+    <t>г Москва, 9-я Чоботовская ал, д 1 стр 1, помещ 1</t>
   </si>
   <si>
     <t>г Москва, ул Старая Басманная, д 5 стр 1, помещ 1/П</t>
@@ -595,12 +577,12 @@
     <t>г Москва, г Зеленоград, к 1403</t>
   </si>
   <si>
-    <t>г Москва, Карманицкий пер, д 3А стр 4, помещ 3П</t>
-  </si>
-  <si>
     <t>г Москва, ул Нижняя Первомайская, д 53</t>
   </si>
   <si>
+    <t>г Москва, ул Бартеневская, д 49 к 3, помещ 1Н</t>
+  </si>
+  <si>
     <t>г Москва, ул Бутлерова, д 22, помещ 5/1</t>
   </si>
   <si>
@@ -622,7 +604,10 @@
     <t>г Москва, Ленинградское шоссе, д 8 к 1, помещ 3/1</t>
   </si>
   <si>
-    <t>Респ Крым, Кировский р-н, с. Золотое Поле, ул. Тагакова, уч. 1б</t>
+    <t>г Москва, ул Большая Никитская, д 24/1 стр 6, помещ 3/1</t>
+  </si>
+  <si>
+    <t>Республика Крым, Кировский район, с. Золотое Поле, ул. Тагакова, уч. 1б</t>
   </si>
   <si>
     <t>Респ Крым, Кировский р-н, село Шубино, ул Ленина, д 62а</t>
@@ -631,7 +616,7 @@
     <t>Респ Крым, Красногвардейский р-н, село Полтавка, ул Центральная, д 10, помещ 4</t>
   </si>
   <si>
-    <t>Респ Крым, г. Симферополь, б-р И. Франко, д. 4</t>
+    <t>Республика Крым,  г. Симферополь, б-р И. Франко, д. 4. Кадастровый номер 90:22:010217:13478</t>
   </si>
   <si>
     <t>EA</t>
@@ -670,6 +655,9 @@
     <t>16:50:011816:115</t>
   </si>
   <si>
+    <t xml:space="preserve">21:06:250407:246, </t>
+  </si>
+  <si>
     <t>50:35:0030405:1682</t>
   </si>
   <si>
@@ -679,10 +667,7 @@
     <t>50:17:0021502:30</t>
   </si>
   <si>
-    <t>50:37:0060613:128</t>
-  </si>
-  <si>
-    <t>50:37:0070116:828</t>
+    <t>50:34:0010808:481</t>
   </si>
   <si>
     <t>50:58:0020101:155</t>
@@ -700,6 +685,9 @@
     <t>50:42:0000000:39346</t>
   </si>
   <si>
+    <t>50:28:0030241:93</t>
+  </si>
+  <si>
     <t>50:43:0030304:1156</t>
   </si>
   <si>
@@ -712,12 +700,6 @@
     <t>50:57:0000000:7243</t>
   </si>
   <si>
-    <t>50:04:0010202:6922</t>
-  </si>
-  <si>
-    <t>50:04:0010202:6923</t>
-  </si>
-  <si>
     <t>50:53:0020103:2581</t>
   </si>
   <si>
@@ -727,6 +709,9 @@
     <t>50:58:0100402:377</t>
   </si>
   <si>
+    <t>50:16:0302020:3410</t>
+  </si>
+  <si>
     <t>50:16:0000000:66901</t>
   </si>
   <si>
@@ -778,30 +763,15 @@
     <t>77:06:0008002:1155</t>
   </si>
   <si>
-    <t>77:02:0010009:3795</t>
-  </si>
-  <si>
-    <t>77:09:0001020:2318</t>
-  </si>
-  <si>
     <t>77:08:0013010:1203</t>
   </si>
   <si>
-    <t>77:02:0025016:1512</t>
-  </si>
-  <si>
     <t xml:space="preserve">77:09:0004011:6556, </t>
   </si>
   <si>
-    <t>77:02:0010008:4833</t>
-  </si>
-  <si>
     <t xml:space="preserve">77:01:0006007:3888 </t>
   </si>
   <si>
-    <t>77:04:0001019:9656</t>
-  </si>
-  <si>
     <t>77:09:0003013:2544</t>
   </si>
   <si>
@@ -811,7 +781,7 @@
     <t xml:space="preserve">77:04:0004018:1611, </t>
   </si>
   <si>
-    <t>77:05:0004009:13807; 77:05:0004009:13808</t>
+    <t>77:07:0015005:29883</t>
   </si>
   <si>
     <t>77:01:0003008:3576</t>
@@ -826,12 +796,12 @@
     <t>77:10:0000000:2590</t>
   </si>
   <si>
-    <t>77:01:0001060:2215</t>
-  </si>
-  <si>
     <t xml:space="preserve">77:03:0005014:11807 </t>
   </si>
   <si>
+    <t>77:06:0012003:8265</t>
+  </si>
+  <si>
     <t xml:space="preserve">77:06:0008003:1053, </t>
   </si>
   <si>
@@ -856,6 +826,9 @@
     <t>77:09:0003018:10762</t>
   </si>
   <si>
+    <t>77:01:0001069:5226</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -863,17 +836,24 @@
   </si>
   <si>
     <t>90:22:010217:13478</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="# ##0.0 м2"/>
-    <numFmt numFmtId="165" formatCode="# ### ##0 ₽"/>
-    <numFmt numFmtId="166" formatCode="# ### ##0.0 ₽"/>
-    <numFmt numFmtId="167" formatCode="#\ ##0\ \м"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="# ##0.0м2"/>
+    <numFmt numFmtId="165" formatCode="dd.mm.yy hh:mm"/>
+    <numFmt numFmtId="166" formatCode="# ### ##0₽"/>
+    <numFmt numFmtId="167" formatCode="# ### ##0.0₽"/>
+    <numFmt numFmtId="168" formatCode="#\ ##0\ \м"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -935,13 +915,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -949,7 +933,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -957,6 +941,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1250,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,83 +1254,87 @@
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="4" customWidth="1"/>
     <col min="13" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="6" customWidth="1"/>
     <col min="17" max="18" width="3.7109375" customWidth="1"/>
     <col min="19" max="20" width="22.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="6">
+      <c r="V1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1350,27 +1348,27 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="3">
+        <v>130</v>
+      </c>
+      <c r="H2" s="4">
         <v>1071400</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>2248.006714225766</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>4.51</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>0.98</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>562</v>
       </c>
       <c r="M2">
@@ -1382,14 +1380,14 @@
       <c r="O2">
         <v>4</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="6">
         <v>2000</v>
       </c>
       <c r="Q2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S2" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.437214, 49.019527", "56.437214, 49.019527")</f>
@@ -1400,11 +1398,14 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="6">
+        <v>204</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1418,27 +1419,27 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="3">
+        <v>131</v>
+      </c>
+      <c r="H3" s="4">
         <v>894000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>2299.441858072481</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>0.87</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>1.86</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>95.79000000000001</v>
       </c>
       <c r="M3">
@@ -1450,14 +1451,14 @@
       <c r="O3">
         <v>24</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>400</v>
       </c>
       <c r="Q3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S3" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=57.004803, 48.74018", "57.004803, 48.74018")</f>
@@ -1467,9 +1468,12 @@
         <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/57.004803_48.74018.json", "57.004803_48.74018.json")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="6">
+      <c r="V3" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1483,27 +1487,27 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="3">
+        <v>132</v>
+      </c>
+      <c r="H4" s="4">
         <v>4996667</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>11669.00280242877</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>2.46</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>19.71</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>3889.67</v>
       </c>
       <c r="M4">
@@ -1515,14 +1519,14 @@
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>1000</v>
       </c>
       <c r="Q4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S4" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.629086, 47.857883", "56.629086, 47.857883")</f>
@@ -1533,11 +1537,11 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1551,27 +1555,27 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="3">
+        <v>133</v>
+      </c>
+      <c r="H5" s="4">
         <v>8086667</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>76578.28598484849</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>21.92</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>10.59</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>3063.12</v>
       </c>
       <c r="M5">
@@ -1583,14 +1587,14 @@
       <c r="O5">
         <v>25</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <v>800</v>
       </c>
       <c r="Q5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S5" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.638709, 47.93034", "56.638709, 47.93034")</f>
@@ -1601,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1619,27 +1623,27 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="3">
+        <v>134</v>
+      </c>
+      <c r="H6" s="4">
         <v>845000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>78971.96261682243</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>22.61</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>10.92</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>3158.84</v>
       </c>
       <c r="M6">
@@ -1651,14 +1655,14 @@
       <c r="O6">
         <v>25</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <v>800</v>
       </c>
       <c r="Q6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S6" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.638709, 47.93034", "56.638709, 47.93034")</f>
@@ -1669,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1687,24 +1691,24 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="3">
+        <v>135</v>
+      </c>
+      <c r="H7" s="4">
         <v>655509</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>1162.868547099521</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>3.42</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>1162</v>
       </c>
       <c r="M7">
@@ -1714,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S7" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.979764, 48.506438", "54.979764, 48.506438")</f>
@@ -1728,11 +1732,14 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="6">
+        <v>208</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1746,27 +1753,27 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="3">
+        <v>136</v>
+      </c>
+      <c r="H8" s="4">
         <v>1463616</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>6720</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>1.69</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>3.01</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>94.65000000000001</v>
       </c>
       <c r="M8">
@@ -1778,14 +1785,14 @@
       <c r="O8">
         <v>71</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>500</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S8" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.863985, 49.225845", "55.863985, 49.225845")</f>
@@ -1796,11 +1803,14 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="6">
+        <v>209</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1814,27 +1824,27 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="3">
+        <v>137</v>
+      </c>
+      <c r="H9" s="4">
         <v>578915</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>21521.00371747212</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>23.75</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>22.01</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <v>1956.45</v>
       </c>
       <c r="M9">
@@ -1846,14 +1856,14 @@
       <c r="O9">
         <v>11</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>900</v>
       </c>
       <c r="Q9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S9" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.30253, 50.109581", "55.30253, 50.109581")</f>
@@ -1864,11 +1874,14 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="6">
+        <v>210</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1882,27 +1895,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="3">
+        <v>138</v>
+      </c>
+      <c r="H10" s="4">
         <v>7392700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>46031.75591531756</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>10.79</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>18.35</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>568.28</v>
       </c>
       <c r="M10">
@@ -1914,14 +1927,14 @@
       <c r="O10">
         <v>81</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>300</v>
       </c>
       <c r="Q10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S10" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.784577, 49.109118", "55.784577, 49.109118")</f>
@@ -1932,348 +1945,351 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>694.3</v>
+        <v>357.2</v>
       </c>
       <c r="D11" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002118_1/(lotInfo:info)", "21000004710000002118_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000077840000000008_1/(lotInfo:info)", "22000077840000000008_1")</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="3">
-        <v>6250333.33</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9002.352484516779</v>
-      </c>
-      <c r="J11" s="4">
-        <v>62.51</v>
-      </c>
-      <c r="K11" s="4">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L11" s="3">
-        <v>3000.67</v>
+        <v>139</v>
+      </c>
+      <c r="H11" s="4">
+        <v>695000</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1945.68868980963</v>
+      </c>
+      <c r="J11" s="5">
+        <v>10.75</v>
+      </c>
+      <c r="K11" s="5">
+        <v>8.42</v>
+      </c>
+      <c r="L11" s="4">
+        <v>486.25</v>
       </c>
       <c r="M11">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="N11">
-        <v>937</v>
+        <v>231</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="P11" s="6">
+        <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S11" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.849313, 39.305731", "54.849313, 39.305731")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.788735, 46.615925", "54.788735, 46.615925")</f>
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.849313_39.305731.json", "54.849313_39.305731.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.788735_46.615925.json", "54.788735_46.615925.json")</f>
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <v>335.2</v>
+        <v>694.3</v>
       </c>
       <c r="D12" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001850_1/(lotInfo:info)", "21000004710000001850_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002118_1/(lotInfo:info)", "21000004710000002118_1")</f>
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3308333.33</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9869.72950477327</v>
-      </c>
-      <c r="J12" s="4">
-        <v>85.81999999999999</v>
-      </c>
-      <c r="K12" s="4">
-        <v>11.08</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4934.5</v>
+        <v>140</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6250333.33</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9002.352484516779</v>
+      </c>
+      <c r="J12" s="5">
+        <v>62.51</v>
+      </c>
+      <c r="K12" s="5">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3000.67</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="N12">
-        <v>891</v>
+        <v>937</v>
       </c>
       <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S12" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.95581, 39.185681", "54.95581, 39.185681")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.849313, 39.305731", "54.849313, 39.305731")</f>
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.95581_39.185681.json", "54.95581_39.185681.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.849313_39.305731.json", "54.849313_39.305731.json")</f>
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>258</v>
+        <v>335.2</v>
       </c>
       <c r="D13" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001768_1/(lotInfo:info)", "21000004710000001768_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001850_1/(lotInfo:info)", "21000004710000001850_1")</f>
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3579000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>13872.09302325581</v>
-      </c>
-      <c r="J13" s="4">
-        <v>10.64</v>
-      </c>
-      <c r="K13" s="4">
-        <v>8.33</v>
-      </c>
-      <c r="L13" s="3">
-        <v>478.34</v>
+        <v>141</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3308333.33</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9869.72950477327</v>
+      </c>
+      <c r="J13" s="5">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11.08</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4934.5</v>
       </c>
       <c r="M13">
-        <v>1304</v>
+        <v>115</v>
       </c>
       <c r="N13">
-        <v>1665</v>
+        <v>891</v>
       </c>
       <c r="O13">
-        <v>29</v>
-      </c>
-      <c r="P13" s="5">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1500</v>
       </c>
       <c r="Q13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S13" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.770279, 38.652198", "55.770279, 38.652198")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.95581, 39.185681", "54.95581, 39.185681")</f>
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.770279_38.652198.json", "55.770279_38.652198.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.95581_39.185681.json", "54.95581_39.185681.json")</f>
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="6">
+        <v>214</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
       <c r="C14" s="1">
-        <v>79.40000000000001</v>
+        <v>258</v>
       </c>
       <c r="D14" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001722_1/(lotInfo:info)", "21000004710000001722_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001768_1/(lotInfo:info)", "21000004710000001768_1")</f>
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1156450</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14564.86146095718</v>
-      </c>
-      <c r="J14" s="4">
-        <v>11.19</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2.73</v>
-      </c>
-      <c r="L14" s="3">
-        <v>662</v>
+        <v>142</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3579000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>13872.09302325581</v>
+      </c>
+      <c r="J14" s="5">
+        <v>10.64</v>
+      </c>
+      <c r="K14" s="5">
+        <v>8.33</v>
+      </c>
+      <c r="L14" s="4">
+        <v>478.34</v>
       </c>
       <c r="M14">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="N14">
-        <v>5331</v>
+        <v>1665</v>
       </c>
       <c r="O14">
-        <v>22</v>
-      </c>
-      <c r="P14" s="5">
+        <v>29</v>
+      </c>
+      <c r="P14" s="6">
         <v>500</v>
       </c>
       <c r="Q14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S14" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.848655, 38.248738", "54.848655, 38.248738")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.770279, 38.652198", "55.770279, 38.652198")</f>
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.848655_38.248738.json", "54.848655_38.248738.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.770279_38.652198.json", "55.770279_38.652198.json")</f>
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>82</v>
+        <v>116.1</v>
       </c>
       <c r="D15" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001724_1/(lotInfo:info)", "21000004710000001724_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002538_1/(lotInfo:info)", "21000004710000002538_1")</f>
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1269950</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15487.19512195122</v>
-      </c>
-      <c r="J15" s="4">
-        <v>11.89</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="L15" s="3">
-        <v>360.16</v>
+        <v>143</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2418400</v>
+      </c>
+      <c r="I15" s="4">
+        <v>20830.31869078381</v>
+      </c>
+      <c r="J15" s="5">
+        <v>452.83</v>
+      </c>
+      <c r="K15" s="5">
+        <v>141.7</v>
+      </c>
+      <c r="L15" s="4">
+        <v>10415</v>
       </c>
       <c r="M15">
-        <v>1302</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>5340</v>
+        <v>147</v>
       </c>
       <c r="O15">
-        <v>43</v>
-      </c>
-      <c r="P15" s="5">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>200</v>
       </c>
       <c r="Q15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S15" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.851143, 38.245935", "54.851143, 38.245935")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.129798, 39.09252", "55.129798, 39.09252")</f>
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.851143_38.245935.json", "54.851143_38.245935.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.129798_39.09252.json", "55.129798_39.09252.json")</f>
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16">
@@ -2287,27 +2303,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="3">
+        <v>144</v>
+      </c>
+      <c r="H16" s="4">
         <v>3525000</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>21299.09365558912</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>14.53</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>13.42</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <v>2129.9</v>
       </c>
       <c r="M16">
@@ -2319,14 +2335,14 @@
       <c r="O16">
         <v>10</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="6">
         <v>1500</v>
       </c>
       <c r="Q16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S16" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.933, 37.37951", "54.933, 37.37951")</f>
@@ -2337,11 +2353,14 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="6">
+        <v>217</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17">
@@ -2355,24 +2374,24 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="3">
+        <v>145</v>
+      </c>
+      <c r="H17" s="4">
         <v>3975570</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>23140.6868451688</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>330.57</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>122.43</v>
       </c>
       <c r="M17">
@@ -2384,25 +2403,25 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="6">
         <v>1400</v>
       </c>
       <c r="Q17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S17" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.179987, 38.745605", "55.179987, 38.745605")</f>
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18">
@@ -2416,27 +2435,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="3">
+        <v>146</v>
+      </c>
+      <c r="H18" s="4">
         <v>2450000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>24697.58064516129</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>5.36</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>52.44</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <v>484.25</v>
       </c>
       <c r="M18">
@@ -2448,14 +2467,14 @@
       <c r="O18">
         <v>51</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="6">
         <v>400</v>
       </c>
       <c r="Q18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S18" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.79628, 38.466183", "55.79628, 38.466183")</f>
@@ -2466,11 +2485,11 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19">
@@ -2484,27 +2503,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
+        <v>38</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="3">
+        <v>147</v>
+      </c>
+      <c r="H19" s="4">
         <v>4136000</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>26718.34625322997</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>6.01</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>6.41</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <v>742.17</v>
       </c>
       <c r="M19">
@@ -2516,14 +2535,14 @@
       <c r="O19">
         <v>36</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="6">
         <v>400</v>
       </c>
       <c r="Q19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S19" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.796005, 38.443806", "55.796005, 38.443806")</f>
@@ -2534,11 +2553,11 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20">
@@ -2552,27 +2571,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="3">
+        <v>148</v>
+      </c>
+      <c r="H20" s="4">
         <v>7981330</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>28132.99259781459</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>11.4</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>4.04</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
         <v>370.16</v>
       </c>
       <c r="M20">
@@ -2584,14 +2603,14 @@
       <c r="O20">
         <v>76</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="6">
         <v>400</v>
       </c>
       <c r="Q20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S20" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.945473, 37.50796", "55.945473, 37.50796")</f>
@@ -2602,623 +2621,616 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21">
         <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>64.8</v>
+        <v>101.6</v>
       </c>
       <c r="D21" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002063_1/(lotInfo:info)", "21000004710000002063_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002557_1/(lotInfo:info)", "21000004710000002557_1")</f>
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>108</v>
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1842000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>28425.92592592593</v>
-      </c>
-      <c r="J21" s="4">
-        <v>7.09</v>
-      </c>
-      <c r="K21" s="4">
-        <v>7.59</v>
-      </c>
-      <c r="L21" s="3">
-        <v>768.24</v>
+        <v>149</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2887200</v>
+      </c>
+      <c r="I21" s="4">
+        <v>28417.32283464567</v>
+      </c>
+      <c r="J21" s="5">
+        <v>86.64</v>
+      </c>
+      <c r="K21" s="5">
+        <v>326.63</v>
       </c>
       <c r="M21">
-        <v>4008</v>
+        <v>328</v>
       </c>
       <c r="N21">
-        <v>3744</v>
+        <v>87</v>
       </c>
       <c r="O21">
-        <v>37</v>
-      </c>
-      <c r="P21" s="5">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>2100</v>
       </c>
       <c r="Q21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S21" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.97189, 37.9131", "55.97189, 37.9131")</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.97189_37.9131.json", "55.97189_37.9131.json")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.322787, 37.82956", "55.322787, 37.82956")</f>
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="C22" s="1">
-        <v>228.3</v>
+        <v>64.8</v>
       </c>
       <c r="D22" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002477_1/(lotInfo:info)", "21000004710000002477_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002063_1/(lotInfo:info)", "21000004710000002063_1")</f>
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6642850</v>
-      </c>
-      <c r="I22" s="3">
-        <v>29097.0214629873</v>
-      </c>
-      <c r="J22" s="4">
-        <v>11.79</v>
-      </c>
-      <c r="K22" s="4">
-        <v>4.27</v>
-      </c>
-      <c r="L22" s="3">
-        <v>398.59</v>
+        <v>150</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1842000</v>
+      </c>
+      <c r="I22" s="4">
+        <v>28425.92592592593</v>
+      </c>
+      <c r="J22" s="5">
+        <v>7.09</v>
+      </c>
+      <c r="K22" s="5">
+        <v>7.59</v>
+      </c>
+      <c r="L22" s="4">
+        <v>768.24</v>
       </c>
       <c r="M22">
-        <v>2468</v>
+        <v>4008</v>
       </c>
       <c r="N22">
-        <v>6822</v>
+        <v>3744</v>
       </c>
       <c r="O22">
-        <v>73</v>
-      </c>
-      <c r="P22" s="5">
-        <v>400</v>
+        <v>37</v>
+      </c>
+      <c r="P22" s="6">
+        <v>300</v>
       </c>
       <c r="Q22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S22" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.94495, 37.508247", "55.94495, 37.508247")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.97189, 37.9131", "55.97189, 37.9131")</f>
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.94495_37.508247.json", "55.94495_37.508247.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.97189_37.9131.json", "55.97189_37.9131.json")</f>
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="6">
+        <v>223</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23">
         <v>50</v>
       </c>
       <c r="C23" s="1">
-        <v>243.8</v>
+        <v>228.3</v>
       </c>
       <c r="D23" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001886_1/(lotInfo:info)", "21000004710000001886_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002477_1/(lotInfo:info)", "21000004710000002477_1")</f>
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="3">
-        <v>7520000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>30844.95488105004</v>
-      </c>
-      <c r="J23" s="4">
-        <v>27.56</v>
-      </c>
-      <c r="K23" s="4">
-        <v>10.11</v>
-      </c>
-      <c r="L23" s="3">
-        <v>642.58</v>
+        <v>151</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6642850</v>
+      </c>
+      <c r="I23" s="4">
+        <v>29097.0214629873</v>
+      </c>
+      <c r="J23" s="5">
+        <v>11.79</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4.27</v>
+      </c>
+      <c r="L23" s="4">
+        <v>398.59</v>
       </c>
       <c r="M23">
-        <v>1119</v>
+        <v>2468</v>
       </c>
       <c r="N23">
-        <v>3051</v>
+        <v>6822</v>
       </c>
       <c r="O23">
-        <v>48</v>
-      </c>
-      <c r="P23" s="5">
-        <v>900</v>
+        <v>73</v>
+      </c>
+      <c r="P23" s="6">
+        <v>400</v>
       </c>
       <c r="Q23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S23" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.807157, 38.166847", "55.807157, 38.166847")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.94495, 37.508247", "55.94495, 37.508247")</f>
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.807157_38.166847.json", "55.807157_38.166847.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.94495_37.508247.json", "55.94495_37.508247.json")</f>
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24">
         <v>50</v>
       </c>
       <c r="C24" s="1">
-        <v>30.9</v>
+        <v>243.8</v>
       </c>
       <c r="D24" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002100_1/(lotInfo:info)", "21000004710000002100_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001886_1/(lotInfo:info)", "21000004710000001886_1")</f>
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="3">
-        <v>974675</v>
-      </c>
-      <c r="I24" s="3">
-        <v>31542.88025889968</v>
-      </c>
-      <c r="J24" s="4">
-        <v>13.88</v>
-      </c>
-      <c r="K24" s="4">
-        <v>23.82</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3942.75</v>
+        <v>152</v>
+      </c>
+      <c r="H24" s="4">
+        <v>7520000</v>
+      </c>
+      <c r="I24" s="4">
+        <v>30844.95488105004</v>
+      </c>
+      <c r="J24" s="5">
+        <v>27.56</v>
+      </c>
+      <c r="K24" s="5">
+        <v>10.11</v>
+      </c>
+      <c r="L24" s="4">
+        <v>642.58</v>
       </c>
       <c r="M24">
-        <v>2272</v>
+        <v>1119</v>
       </c>
       <c r="N24">
-        <v>1324</v>
+        <v>3051</v>
       </c>
       <c r="O24">
-        <v>8</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1200</v>
+        <v>48</v>
+      </c>
+      <c r="P24" s="6">
+        <v>900</v>
       </c>
       <c r="Q24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S24" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.107061, 38.743359", "55.107061, 38.743359")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.807157, 38.166847", "55.807157, 38.166847")</f>
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.107061_38.743359.json", "55.107061_38.743359.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.807157_38.166847.json", "55.807157_38.166847.json")</f>
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25">
         <v>50</v>
       </c>
       <c r="C25" s="1">
-        <v>163.7</v>
+        <v>30.9</v>
       </c>
       <c r="D25" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002201_1/(lotInfo:info)", "21000004710000002201_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002100_1/(lotInfo:info)", "21000004710000002100_1")</f>
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="3">
-        <v>5194125</v>
-      </c>
-      <c r="I25" s="3">
-        <v>31729.53573610263</v>
-      </c>
-      <c r="J25" s="4">
-        <v>54.8</v>
-      </c>
-      <c r="K25" s="4">
-        <v>6.77</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2440.69</v>
+        <v>153</v>
+      </c>
+      <c r="H25" s="4">
+        <v>974675</v>
+      </c>
+      <c r="I25" s="4">
+        <v>31542.88025889968</v>
+      </c>
+      <c r="J25" s="5">
+        <v>13.88</v>
+      </c>
+      <c r="K25" s="5">
+        <v>23.82</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3942.75</v>
       </c>
       <c r="M25">
-        <v>579</v>
+        <v>2272</v>
       </c>
       <c r="N25">
-        <v>4686</v>
+        <v>1324</v>
       </c>
       <c r="O25">
-        <v>13</v>
-      </c>
-      <c r="P25" s="5">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1200</v>
       </c>
       <c r="Q25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S25" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.341003, 37.548286", "56.341003, 37.548286")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.107061, 38.743359", "55.107061, 38.743359")</f>
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/56.341003_37.548286.json", "56.341003_37.548286.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.107061_38.743359.json", "55.107061_38.743359.json")</f>
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26">
         <v>50</v>
       </c>
       <c r="C26" s="1">
-        <v>138.6</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D26" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002203_1/(lotInfo:info)", "21000004710000002203_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001306_1/(lotInfo:info)", "21000004710000001306_1")</f>
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4475792</v>
-      </c>
-      <c r="I26" s="3">
-        <v>32292.87157287157</v>
-      </c>
-      <c r="J26" s="4">
-        <v>55.77</v>
-      </c>
-      <c r="K26" s="4">
-        <v>6.89</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2484</v>
+        <v>154</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3104167</v>
+      </c>
+      <c r="I26" s="4">
+        <v>32368.79040667362</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4.41</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1011.5</v>
       </c>
       <c r="M26">
-        <v>579</v>
+        <v>3944</v>
       </c>
       <c r="N26">
-        <v>4686</v>
+        <v>7341</v>
       </c>
       <c r="O26">
-        <v>13</v>
-      </c>
-      <c r="P26" s="5">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="P26" s="6">
+        <v>400</v>
       </c>
       <c r="Q26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S26" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.341003, 37.548286", "56.341003, 37.548286")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.574895, 37.900596", "55.574895, 37.900596")</f>
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/56.341003_37.548286.json", "56.341003_37.548286.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.574895_37.900596.json", "55.574895_37.900596.json")</f>
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27">
         <v>50</v>
       </c>
       <c r="C27" s="1">
-        <v>95.90000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D27" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001306_1/(lotInfo:info)", "21000004710000001306_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001893_1/(lotInfo:info)", "21000004710000001893_1")</f>
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3104167</v>
-      </c>
-      <c r="I27" s="3">
-        <v>32368.79040667362</v>
-      </c>
-      <c r="J27" s="4">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="K27" s="4">
-        <v>4.41</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1011.5</v>
+        <v>155</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4860000</v>
+      </c>
+      <c r="I27" s="4">
+        <v>32421.6144096064</v>
+      </c>
+      <c r="J27" s="5">
+        <v>43.81</v>
+      </c>
+      <c r="K27" s="5">
+        <v>17.59</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1907.12</v>
       </c>
       <c r="M27">
-        <v>3944</v>
+        <v>740</v>
       </c>
       <c r="N27">
-        <v>7341</v>
+        <v>1843</v>
       </c>
       <c r="O27">
-        <v>32</v>
-      </c>
-      <c r="P27" s="5">
-        <v>400</v>
+        <v>17</v>
+      </c>
+      <c r="P27" s="6">
+        <v>800</v>
       </c>
       <c r="Q27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R27" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S27" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.574895, 37.900596", "55.574895, 37.900596")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.844337, 38.414143", "55.844337, 38.414143")</f>
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.574895_37.900596.json", "55.574895_37.900596.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.844337_38.414143.json", "55.844337_38.414143.json")</f>
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
       <c r="C28" s="1">
-        <v>149.9</v>
+        <v>156.6</v>
       </c>
       <c r="D28" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000001893_1/(lotInfo:info)", "21000004710000001893_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000000858_1/(lotInfo:info)", "21000004710000000858_1")</f>
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>109</v>
+        <v>47</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4860000</v>
-      </c>
-      <c r="I28" s="3">
-        <v>32421.6144096064</v>
-      </c>
-      <c r="J28" s="4">
-        <v>43.81</v>
-      </c>
-      <c r="K28" s="4">
-        <v>17.59</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1907.12</v>
+        <v>156</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5149000</v>
+      </c>
+      <c r="I28" s="4">
+        <v>32879.94891443168</v>
+      </c>
+      <c r="J28" s="5">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="K28" s="5">
+        <v>10.62</v>
+      </c>
+      <c r="L28" s="4">
+        <v>557.27</v>
       </c>
       <c r="M28">
-        <v>740</v>
+        <v>3810</v>
       </c>
       <c r="N28">
-        <v>1843</v>
+        <v>3096</v>
       </c>
       <c r="O28">
-        <v>17</v>
-      </c>
-      <c r="P28" s="5">
-        <v>800</v>
+        <v>59</v>
+      </c>
+      <c r="P28" s="6">
+        <v>200</v>
       </c>
       <c r="Q28" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S28" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.844337, 38.414143", "55.844337, 38.414143")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.915839, 37.421874", "54.915839, 37.421874")</f>
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.844337_38.414143.json", "55.844337_38.414143.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.915839_37.421874.json", "54.915839_37.421874.json")</f>
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29">
         <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>156.6</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D29" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000000858_1/(lotInfo:info)", "21000004710000000858_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000004710000002573_1/(lotInfo:info)", "21000004710000002573_1")</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
+        <v>48</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5149000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>32879.94891443168</v>
-      </c>
-      <c r="J29" s="4">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="K29" s="4">
-        <v>10.62</v>
-      </c>
-      <c r="L29" s="3">
-        <v>557.27</v>
+        <v>157</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="I29" s="4">
+        <v>33172.49698431845</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45.82</v>
+      </c>
+      <c r="K29" s="5">
+        <v>91.89</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3015.64</v>
       </c>
       <c r="M29">
-        <v>3810</v>
+        <v>724</v>
       </c>
       <c r="N29">
-        <v>3096</v>
+        <v>361</v>
       </c>
       <c r="O29">
-        <v>59</v>
-      </c>
-      <c r="P29" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q29" t="s">
         <v>200</v>
       </c>
-      <c r="Q29" t="s">
-        <v>205</v>
-      </c>
       <c r="R29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S29" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=54.915839, 37.421874", "54.915839, 37.421874")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.852077, 38.494938", "55.852077, 38.494938")</f>
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/54.915839_37.421874.json", "54.915839_37.421874.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.852077_38.494938.json", "55.852077_38.494938.json")</f>
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30">
@@ -3232,27 +3244,27 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="3">
+        <v>158</v>
+      </c>
+      <c r="H30" s="4">
         <v>2640000</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="4">
         <v>35579.51482479784</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>29.19</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="5">
         <v>11.37</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
         <v>2371.93</v>
       </c>
       <c r="M30">
@@ -3264,14 +3276,14 @@
       <c r="O30">
         <v>15</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="6">
         <v>900</v>
       </c>
       <c r="Q30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S30" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.877705, 38.431175", "55.877705, 38.431175")</f>
@@ -3282,11 +3294,11 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31">
@@ -3300,27 +3312,27 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="3">
+        <v>159</v>
+      </c>
+      <c r="H31" s="4">
         <v>1885500</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="4">
         <v>38796.29629629629</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>9.449999999999999</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <v>10.56</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4">
         <v>881.73</v>
       </c>
       <c r="M31">
@@ -3332,14 +3344,14 @@
       <c r="O31">
         <v>44</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="6">
         <v>300</v>
       </c>
       <c r="Q31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S31" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.967567, 37.916163", "55.967567, 37.916163")</f>
@@ -3350,11 +3362,11 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32">
@@ -3368,27 +3380,27 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
+        <v>51</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="3">
+        <v>160</v>
+      </c>
+      <c r="H32" s="4">
         <v>3044600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
         <v>40812.33243967828</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <v>25.07</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <v>15.02</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
         <v>1700.5</v>
       </c>
       <c r="M32">
@@ -3400,14 +3412,14 @@
       <c r="O32">
         <v>24</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="6">
         <v>100</v>
       </c>
       <c r="Q32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S32" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.868945, 38.782292", "55.868945, 38.782292")</f>
@@ -3418,11 +3430,11 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33">
@@ -3436,27 +3448,27 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
-        <v>107</v>
+        <v>52</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="3">
+        <v>161</v>
+      </c>
+      <c r="H33" s="4">
         <v>824917</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="4">
         <v>41453.11557788945</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="5">
         <v>15.4</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="5">
         <v>18.4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4">
         <v>829.0599999999999</v>
       </c>
       <c r="M33">
@@ -3468,14 +3480,14 @@
       <c r="O33">
         <v>50</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="6">
         <v>400</v>
       </c>
       <c r="Q33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R33" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S33" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.895358, 37.436319", "55.895358, 37.436319")</f>
@@ -3486,11 +3498,11 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34">
@@ -3504,27 +3516,27 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="3">
+        <v>162</v>
+      </c>
+      <c r="H34" s="4">
         <v>824917</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4">
         <v>42741.81347150259</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <v>15.23</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <v>17.94</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="4">
         <v>777.11</v>
       </c>
       <c r="M34">
@@ -3536,14 +3548,14 @@
       <c r="O34">
         <v>55</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="6">
         <v>500</v>
       </c>
       <c r="Q34" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S34" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.896731, 37.444665", "55.896731, 37.444665")</f>
@@ -3554,11 +3566,11 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35">
@@ -3572,27 +3584,27 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="3">
+        <v>163</v>
+      </c>
+      <c r="H35" s="4">
         <v>1600000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="4">
         <v>54054.05405405405</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="5">
         <v>111.45</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="5">
         <v>62.56</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="4">
         <v>3003</v>
       </c>
       <c r="M35">
@@ -3604,14 +3616,14 @@
       <c r="O35">
         <v>18</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="6">
         <v>100</v>
       </c>
       <c r="Q35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R35" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S35" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.83291, 38.478302", "55.83291, 38.478302")</f>
@@ -3622,11 +3634,11 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36">
@@ -3640,27 +3652,27 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="3">
+        <v>164</v>
+      </c>
+      <c r="H36" s="4">
         <v>1470000</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="4">
         <v>55263.15789473684</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <v>74.18000000000001</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <v>22.81</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="4">
         <v>4251</v>
       </c>
       <c r="M36">
@@ -3673,10 +3685,10 @@
         <v>13</v>
       </c>
       <c r="Q36" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R36" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S36" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.889523, 38.48255", "55.889523, 38.48255")</f>
@@ -3687,11 +3699,11 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37">
@@ -3705,27 +3717,27 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="3">
+        <v>165</v>
+      </c>
+      <c r="H37" s="4">
         <v>2000000</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>56497.17514124294</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="5">
         <v>12.52</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>9.77</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4">
         <v>957.58</v>
       </c>
       <c r="M37">
@@ -3737,14 +3749,14 @@
       <c r="O37">
         <v>59</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="6">
         <v>300</v>
       </c>
       <c r="Q37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R37" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S37" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.576793, 37.908267", "55.576793, 37.908267")</f>
@@ -3755,11 +3767,11 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38">
@@ -3773,27 +3785,27 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="3">
+        <v>166</v>
+      </c>
+      <c r="H38" s="4">
         <v>1160000</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4">
         <v>56585.36585365854</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="5">
         <v>46.42</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <v>21.26</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4">
         <v>3536.56</v>
       </c>
       <c r="M38">
@@ -3805,14 +3817,14 @@
       <c r="O38">
         <v>16</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="6">
         <v>900</v>
       </c>
       <c r="Q38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S38" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.878666, 38.43054", "55.878666, 38.43054")</f>
@@ -3823,11 +3835,11 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39">
@@ -3841,27 +3853,27 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
+        <v>58</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="3">
+        <v>167</v>
+      </c>
+      <c r="H39" s="4">
         <v>2668380</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="4">
         <v>132755.223880597</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="5">
         <v>54.41</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="5">
         <v>15.25</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="4">
         <v>829.72</v>
       </c>
       <c r="M39">
@@ -3873,14 +3885,14 @@
       <c r="O39">
         <v>160</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="6">
         <v>400</v>
       </c>
       <c r="Q39" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R39" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S39" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.93974, 37.51289", "55.93974, 37.51289")</f>
@@ -3891,11 +3903,11 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40">
@@ -3909,27 +3921,27 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
+        <v>59</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="3">
+        <v>168</v>
+      </c>
+      <c r="H40" s="4">
         <v>1328000</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="4">
         <v>2114.649681528662</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="5">
         <v>1.09</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="5">
         <v>2.17</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
         <v>528.5</v>
       </c>
       <c r="M40">
@@ -3941,14 +3953,14 @@
       <c r="O40">
         <v>4</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="6">
         <v>900</v>
       </c>
       <c r="Q40" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R40" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S40" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=52.465812, 44.219732", "52.465812, 44.219732")</f>
@@ -3959,11 +3971,14 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="6">
+        <v>241</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41">
@@ -3977,27 +3992,27 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>112</v>
+        <v>60</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="3">
+        <v>169</v>
+      </c>
+      <c r="H41" s="4">
         <v>545000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="4">
         <v>10900</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="5">
         <v>9.800000000000001</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="5">
         <v>13.07</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="4">
         <v>3633.33</v>
       </c>
       <c r="M41">
@@ -4009,14 +4024,14 @@
       <c r="O41">
         <v>3</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="6">
         <v>1400</v>
       </c>
       <c r="Q41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R41" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S41" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=52.479477, 44.229496", "52.479477, 44.229496")</f>
@@ -4027,11 +4042,14 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="6">
+        <v>242</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42">
@@ -4045,61 +4063,64 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>113</v>
+        <v>61</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" s="3">
+        <v>170</v>
+      </c>
+      <c r="H42" s="4">
         <v>4965000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="4">
         <v>15712.0253164557</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="5">
         <v>3.64</v>
       </c>
-      <c r="K42" s="4">
-        <v>2.89</v>
-      </c>
-      <c r="L42" s="3">
-        <v>413.47</v>
+      <c r="K42" s="5">
+        <v>2.87</v>
+      </c>
+      <c r="L42" s="4">
+        <v>285.67</v>
       </c>
       <c r="M42">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="N42">
-        <v>5445</v>
+        <v>5473</v>
       </c>
       <c r="O42">
-        <v>38</v>
-      </c>
-      <c r="P42" s="5">
+        <v>55</v>
+      </c>
+      <c r="P42" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q42" t="s">
         <v>200</v>
       </c>
-      <c r="Q42" t="s">
-        <v>205</v>
-      </c>
       <c r="R42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S42" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=53.218411, 44.993262", "53.218411, 44.993262")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=53.22039, 44.992858", "53.22039, 44.992858")</f>
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/53.218411_44.993262.json", "53.218411_44.993262.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/53.22039_44.992858.json", "53.22039_44.992858.json")</f>
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="6">
+        <v>243</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43">
@@ -4113,27 +4134,27 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
-      </c>
-      <c r="H43" s="3">
+        <v>171</v>
+      </c>
+      <c r="H43" s="4">
         <v>1310000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="4">
         <v>21688.74172185431</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="5">
         <v>67.15000000000001</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="5">
         <v>14.12</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="4">
         <v>7229.33</v>
       </c>
       <c r="M43">
@@ -4145,14 +4166,14 @@
       <c r="O43">
         <v>3</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="6">
         <v>100</v>
       </c>
       <c r="Q43" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S43" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=53.208954, 45.305813", "53.208954, 45.305813")</f>
@@ -4163,11 +4184,11 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44">
@@ -4181,61 +4202,64 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>113</v>
+        <v>63</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G44" t="s">
         <v>172</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="4">
         <v>7356000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="4">
         <v>23300.60183718721</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="5">
         <v>5.4</v>
       </c>
-      <c r="K44" s="4">
-        <v>4.28</v>
-      </c>
-      <c r="L44" s="3">
-        <v>613.16</v>
+      <c r="K44" s="5">
+        <v>4.26</v>
+      </c>
+      <c r="L44" s="4">
+        <v>423.64</v>
       </c>
       <c r="M44">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="N44">
-        <v>5445</v>
+        <v>5473</v>
       </c>
       <c r="O44">
-        <v>38</v>
-      </c>
-      <c r="P44" s="5">
+        <v>55</v>
+      </c>
+      <c r="P44" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q44" t="s">
         <v>200</v>
       </c>
-      <c r="Q44" t="s">
-        <v>205</v>
-      </c>
       <c r="R44" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S44" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=53.218411, 44.993262", "53.218411, 44.993262")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=53.22039, 44.992858", "53.22039, 44.992858")</f>
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/53.218411_44.993262.json", "53.218411_44.993262.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/53.22039_44.992858.json", "53.22039_44.992858.json")</f>
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="6">
+        <v>245</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="8">
         <v>43</v>
       </c>
       <c r="B45">
@@ -4249,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" t="s">
-        <v>115</v>
+        <v>64</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="3">
+        <v>173</v>
+      </c>
+      <c r="H45" s="4">
         <v>3097000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="4">
         <v>52849.82935153584</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="5">
         <v>16.75</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="5">
         <v>6.91</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="4">
         <v>1509.97</v>
       </c>
       <c r="M45">
@@ -4281,14 +4305,14 @@
       <c r="O45">
         <v>35</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="6">
         <v>700</v>
       </c>
       <c r="Q45" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R45" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S45" s="2">
         <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=53.187823, 45.174578", "53.187823, 45.174578")</f>
@@ -4299,11 +4323,14 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="6">
+        <v>246</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46">
@@ -4317,2054 +4344,1852 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" t="s">
-        <v>116</v>
+        <v>65</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H46" s="3">
+        <v>174</v>
+      </c>
+      <c r="H46" s="4">
         <v>9137000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="4">
         <v>24146.40591966173</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="5">
         <v>1.66</v>
       </c>
-      <c r="K46" s="4">
-        <v>5.58</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2414.6</v>
+      <c r="K46" s="5">
+        <v>9</v>
+      </c>
+      <c r="L46" s="4">
+        <v>3018.25</v>
       </c>
       <c r="M46">
         <v>14560</v>
       </c>
       <c r="N46">
-        <v>4326</v>
+        <v>2682</v>
       </c>
       <c r="O46">
-        <v>10</v>
-      </c>
-      <c r="P46" s="5">
+        <v>8</v>
+      </c>
+      <c r="P46" s="6">
         <v>1400</v>
       </c>
       <c r="Q46" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R46" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S46" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.646609, 37.546426", "55.646609, 37.546426")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.64669, 37.54651", "55.64669, 37.54651")</f>
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.646609_37.546426.json", "55.646609_37.546426.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.64669_37.54651.json", "55.64669_37.54651.json")</f>
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47">
         <v>77</v>
       </c>
       <c r="C47" s="1">
-        <v>206.8</v>
+        <v>17.8</v>
       </c>
       <c r="D47" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002591_1/(lotInfo:info)", "21000005000000002591_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003167_1/(lotInfo:info)", "21000005000000003167_1")</f>
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" t="s">
-        <v>117</v>
+        <v>66</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" s="3">
-        <v>7086000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>34264.99032882012</v>
-      </c>
-      <c r="J47" s="4">
-        <v>2.96</v>
-      </c>
-      <c r="K47" s="4">
-        <v>5.47</v>
-      </c>
-      <c r="L47" s="3">
-        <v>384.99</v>
+        <v>175</v>
+      </c>
+      <c r="H47" s="4">
+        <v>694000</v>
+      </c>
+      <c r="I47" s="4">
+        <v>38988.76404494382</v>
+      </c>
+      <c r="J47" s="5">
+        <v>5.31</v>
+      </c>
+      <c r="K47" s="5">
+        <v>71.41</v>
+      </c>
+      <c r="L47" s="4">
+        <v>19494</v>
       </c>
       <c r="M47">
-        <v>11588</v>
+        <v>7337</v>
       </c>
       <c r="N47">
-        <v>6264</v>
+        <v>546</v>
       </c>
       <c r="O47">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="P47" s="6">
+        <v>2000</v>
       </c>
       <c r="Q47" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R47" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S47" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.872243, 37.679323", "55.872243, 37.679323")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.782024, 37.392246", "55.782024, 37.392246")</f>
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.872243_37.679323.json", "55.872243_37.679323.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.782024_37.392246.json", "55.782024_37.392246.json")</f>
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="8">
         <v>46</v>
       </c>
       <c r="B48">
         <v>77</v>
       </c>
       <c r="C48" s="1">
-        <v>169.8</v>
+        <v>181.5</v>
       </c>
       <c r="D48" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002598_1/(lotInfo:info)", "21000005000000002598_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002696_1/(lotInfo:info)", "21000005000000002696_1")</f>
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6328000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>37267.37338044759</v>
-      </c>
-      <c r="J48" s="4">
-        <v>4.45</v>
-      </c>
-      <c r="K48" s="4">
-        <v>4.43</v>
-      </c>
-      <c r="L48" s="3">
-        <v>828.16</v>
+        <v>176</v>
+      </c>
+      <c r="H48" s="4">
+        <v>7949000</v>
+      </c>
+      <c r="I48" s="4">
+        <v>43796.14325068871</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="K48" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="L48" s="4">
+        <v>461.01</v>
       </c>
       <c r="M48">
-        <v>8383</v>
+        <v>16854</v>
       </c>
       <c r="N48">
-        <v>8418</v>
+        <v>13206</v>
       </c>
       <c r="O48">
-        <v>45</v>
-      </c>
-      <c r="P48" s="5">
-        <v>500</v>
+        <v>95</v>
+      </c>
+      <c r="P48" s="6">
+        <v>800</v>
       </c>
       <c r="Q48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S48" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.84495, 37.481523", "55.84495, 37.481523")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.797574, 37.569468", "55.797574, 37.569468")</f>
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.84495_37.481523.json", "55.84495_37.481523.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.797574_37.569468.json", "55.797574_37.569468.json")</f>
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="8">
         <v>47</v>
       </c>
       <c r="B49">
         <v>77</v>
       </c>
       <c r="C49" s="1">
-        <v>17.8</v>
+        <v>152.2</v>
       </c>
       <c r="D49" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003167_1/(lotInfo:info)", "21000005000000003167_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003084_1/(lotInfo:info)", "21000005000000003084_1")</f>
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="3">
-        <v>694000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>38988.76404494382</v>
-      </c>
-      <c r="J49" s="4">
-        <v>5.31</v>
-      </c>
-      <c r="K49" s="4">
-        <v>61.59</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12996</v>
+        <v>177</v>
+      </c>
+      <c r="H49" s="4">
+        <v>7365030</v>
+      </c>
+      <c r="I49" s="4">
+        <v>48390.47306176084</v>
+      </c>
+      <c r="J49" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="K49" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="L49" s="4">
+        <v>310.19</v>
       </c>
       <c r="M49">
-        <v>7337</v>
+        <v>7121</v>
       </c>
       <c r="N49">
-        <v>633</v>
+        <v>11418</v>
       </c>
       <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49" s="5">
-        <v>2000</v>
+        <v>156</v>
+      </c>
+      <c r="P49" s="6">
+        <v>600</v>
       </c>
       <c r="Q49" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R49" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S49" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.781302, 37.392661", "55.781302, 37.392661")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.716473, 37.620393", "55.716473, 37.620393")</f>
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.781302_37.392661.json", "55.781302_37.392661.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.716473_37.620393.json", "55.716473_37.620393.json")</f>
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50">
         <v>77</v>
       </c>
       <c r="C50" s="1">
-        <v>128</v>
+        <v>60.4</v>
       </c>
       <c r="D50" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002704_1/(lotInfo:info)", "21000005000000002704_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002588_1/(lotInfo:info)", "21000005000000002588_1")</f>
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>179</v>
-      </c>
-      <c r="H50" s="3">
-        <v>5027000</v>
-      </c>
-      <c r="I50" s="3">
-        <v>39273.4375</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="K50" s="4">
-        <v>4.97</v>
-      </c>
-      <c r="L50" s="3">
-        <v>935.0700000000001</v>
+        <v>178</v>
+      </c>
+      <c r="H50" s="4">
+        <v>3726000</v>
+      </c>
+      <c r="I50" s="4">
+        <v>61688.74172185431</v>
+      </c>
+      <c r="J50" s="5">
+        <v>5.91</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10.83</v>
+      </c>
+      <c r="L50" s="4">
+        <v>338.95</v>
       </c>
       <c r="M50">
-        <v>14037</v>
+        <v>10445</v>
       </c>
       <c r="N50">
-        <v>7908</v>
+        <v>5694</v>
       </c>
       <c r="O50">
-        <v>42</v>
-      </c>
-      <c r="P50" s="5">
-        <v>600</v>
+        <v>182</v>
+      </c>
+      <c r="P50" s="6">
+        <v>100</v>
       </c>
       <c r="Q50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R50" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S50" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.884403, 37.541566", "55.884403, 37.541566")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.817997, 37.50125", "55.817997, 37.50125")</f>
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.884403_37.541566.json", "55.884403_37.541566.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.817997_37.50125.json", "55.817997_37.50125.json")</f>
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="8">
         <v>49</v>
       </c>
       <c r="B51">
         <v>77</v>
       </c>
       <c r="C51" s="1">
-        <v>181.5</v>
+        <v>117.4</v>
       </c>
       <c r="D51" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002696_1/(lotInfo:info)", "21000005000000002696_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003050_1/(lotInfo:info)", "21000005000000003050_1")</f>
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>180</v>
-      </c>
-      <c r="H51" s="3">
-        <v>7949000</v>
-      </c>
-      <c r="I51" s="3">
-        <v>43796.14325068871</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="K51" s="4">
-        <v>3.32</v>
-      </c>
-      <c r="L51" s="3">
-        <v>461.01</v>
+        <v>179</v>
+      </c>
+      <c r="H51" s="4">
+        <v>8196431</v>
+      </c>
+      <c r="I51" s="4">
+        <v>69816.27768313458</v>
+      </c>
+      <c r="J51" s="5">
+        <v>10.39</v>
+      </c>
+      <c r="K51" s="5">
+        <v>4.13</v>
+      </c>
+      <c r="L51" s="4">
+        <v>712.41</v>
       </c>
       <c r="M51">
-        <v>16854</v>
+        <v>6721</v>
       </c>
       <c r="N51">
-        <v>13206</v>
+        <v>16920</v>
       </c>
       <c r="O51">
-        <v>95</v>
-      </c>
-      <c r="P51" s="5">
-        <v>800</v>
+        <v>98</v>
+      </c>
+      <c r="P51" s="6">
+        <v>100</v>
       </c>
       <c r="Q51" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R51" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S51" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.797574, 37.569468", "55.797574, 37.569468")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.7912776, 37.7954093", "55.7912776, 37.7954093")</f>
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.797574_37.569468.json", "55.797574_37.569468.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.7912776_37.7954093.json", "55.7912776_37.7954093.json")</f>
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="8">
         <v>50</v>
       </c>
       <c r="B52">
         <v>77</v>
       </c>
       <c r="C52" s="1">
-        <v>214.4</v>
+        <v>57.3</v>
       </c>
       <c r="D52" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002571_1/(lotInfo:info)", "21000005000000002571_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003304_1/(lotInfo:info)", "21000005000000003304_1")</f>
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" t="s">
-        <v>121</v>
+        <v>71</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9761000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>45527.05223880597</v>
-      </c>
-      <c r="J52" s="4">
-        <v>3.63</v>
-      </c>
-      <c r="K52" s="4">
-        <v>3.78</v>
-      </c>
-      <c r="L52" s="3">
-        <v>910.54</v>
+        <v>180</v>
+      </c>
+      <c r="H52" s="4">
+        <v>4062000</v>
+      </c>
+      <c r="I52" s="4">
+        <v>70890.05235602094</v>
+      </c>
+      <c r="J52" s="5">
+        <v>5.13</v>
+      </c>
+      <c r="K52" s="5">
+        <v>41.02</v>
+      </c>
+      <c r="L52" s="4">
+        <v>2215.31</v>
       </c>
       <c r="M52">
-        <v>12544</v>
+        <v>13807</v>
       </c>
       <c r="N52">
-        <v>12051</v>
+        <v>1728</v>
       </c>
       <c r="O52">
-        <v>50</v>
-      </c>
-      <c r="P52" s="5">
-        <v>400</v>
+        <v>32</v>
+      </c>
+      <c r="P52" s="6">
+        <v>600</v>
       </c>
       <c r="Q52" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R52" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S52" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.861974, 37.676825", "55.861974, 37.676825")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.657311, 37.73058", "55.657311, 37.73058")</f>
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.861974_37.676825.json", "55.861974_37.676825.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.657311_37.73058.json", "55.657311_37.73058.json")</f>
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="6">
+        <v>253</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="8">
         <v>51</v>
       </c>
       <c r="B53">
         <v>77</v>
       </c>
       <c r="C53" s="1">
-        <v>152.2</v>
+        <v>52.8</v>
       </c>
       <c r="D53" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003084_1/(lotInfo:info)", "21000005000000003084_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003387_1/(lotInfo:info)", "21000005000000003387_1")</f>
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" t="s">
-        <v>122</v>
+        <v>72</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
-      </c>
-      <c r="H53" s="3">
-        <v>7365030</v>
-      </c>
-      <c r="I53" s="3">
-        <v>48390.47306176084</v>
-      </c>
-      <c r="J53" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="K53" s="4">
-        <v>4.24</v>
-      </c>
-      <c r="L53" s="3">
-        <v>310.19</v>
+        <v>181</v>
+      </c>
+      <c r="H53" s="4">
+        <v>3997000</v>
+      </c>
+      <c r="I53" s="4">
+        <v>75700.75757575758</v>
+      </c>
+      <c r="J53" s="5">
+        <v>46.41</v>
+      </c>
+      <c r="K53" s="5">
+        <v>115.05</v>
+      </c>
+      <c r="L53" s="4">
+        <v>5823.08</v>
       </c>
       <c r="M53">
-        <v>7121</v>
+        <v>1631</v>
       </c>
       <c r="N53">
-        <v>11418</v>
+        <v>658</v>
       </c>
       <c r="O53">
-        <v>156</v>
-      </c>
-      <c r="P53" s="5">
-        <v>600</v>
+        <v>13</v>
+      </c>
+      <c r="P53" s="6">
+        <v>1800</v>
       </c>
       <c r="Q53" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S53" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.716473, 37.620393", "55.716473, 37.620393")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.655514, 37.3523", "55.655514, 37.3523")</f>
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.716473_37.620393.json", "55.716473_37.620393.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.655514_37.3523.json", "55.655514_37.3523.json")</f>
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="6">
+        <v>254</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="8">
         <v>52</v>
       </c>
       <c r="B54">
         <v>77</v>
       </c>
       <c r="C54" s="1">
-        <v>91.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D54" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002593_1/(lotInfo:info)", "21000005000000002593_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002809_1/(lotInfo:info)", "21000005000000002809_1")</f>
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" t="s">
-        <v>121</v>
+        <v>73</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4504000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>49331.87294633078</v>
-      </c>
-      <c r="J54" s="4">
-        <v>4.67</v>
-      </c>
-      <c r="K54" s="4">
-        <v>5.84</v>
-      </c>
-      <c r="L54" s="3">
-        <v>865.46</v>
+        <v>182</v>
+      </c>
+      <c r="H54" s="4">
+        <v>6064000</v>
+      </c>
+      <c r="I54" s="4">
+        <v>90372.5782414307</v>
+      </c>
+      <c r="J54" s="5">
+        <v>9.83</v>
+      </c>
+      <c r="K54" s="5">
+        <v>7.17</v>
+      </c>
+      <c r="L54" s="4">
+        <v>376.55</v>
       </c>
       <c r="M54">
-        <v>10557</v>
+        <v>9190</v>
       </c>
       <c r="N54">
-        <v>8451</v>
+        <v>12602</v>
       </c>
       <c r="O54">
-        <v>57</v>
-      </c>
-      <c r="P54" s="5">
-        <v>300</v>
+        <v>240</v>
+      </c>
+      <c r="P54" s="6">
+        <v>100</v>
       </c>
       <c r="Q54" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R54" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S54" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.72636, 37.671049", "55.72636, 37.671049")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.7645572, 37.6569216", "55.7645572, 37.6569216")</f>
         <v>0</v>
       </c>
       <c r="T54" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.72636_37.671049.json", "55.72636_37.671049.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.7645572_37.6569216.json", "55.7645572_37.6569216.json")</f>
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="8">
         <v>53</v>
       </c>
       <c r="B55">
         <v>77</v>
       </c>
       <c r="C55" s="1">
-        <v>60.4</v>
+        <v>83.8</v>
       </c>
       <c r="D55" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002588_1/(lotInfo:info)", "21000005000000002588_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003176_1/(lotInfo:info)", "21000005000000003176_1")</f>
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>184</v>
-      </c>
-      <c r="H55" s="3">
-        <v>3726000</v>
-      </c>
-      <c r="I55" s="3">
-        <v>61688.74172185431</v>
-      </c>
-      <c r="J55" s="4">
-        <v>5.91</v>
-      </c>
-      <c r="K55" s="4">
-        <v>10.83</v>
-      </c>
-      <c r="L55" s="3">
-        <v>338.95</v>
+        <v>183</v>
+      </c>
+      <c r="H55" s="4">
+        <v>7621000</v>
+      </c>
+      <c r="I55" s="4">
+        <v>90942.72076372315</v>
+      </c>
+      <c r="J55" s="5">
+        <v>13.02</v>
+      </c>
+      <c r="K55" s="5">
+        <v>10.04</v>
+      </c>
+      <c r="L55" s="4">
+        <v>745.4299999999999</v>
       </c>
       <c r="M55">
-        <v>10445</v>
+        <v>6985</v>
       </c>
       <c r="N55">
-        <v>5694</v>
+        <v>9057</v>
       </c>
       <c r="O55">
-        <v>182</v>
-      </c>
-      <c r="P55" s="5">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="P55" s="6">
+        <v>200</v>
       </c>
       <c r="Q55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R55" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S55" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.817997, 37.50125", "55.817997, 37.50125")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.993741, 37.210249", "55.993741, 37.210249")</f>
         <v>0</v>
       </c>
       <c r="T55" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.817997_37.50125.json", "55.817997_37.50125.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.993741_37.210249.json", "55.993741_37.210249.json")</f>
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="6">
+        <v>256</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="8">
         <v>54</v>
       </c>
       <c r="B56">
         <v>77</v>
       </c>
       <c r="C56" s="1">
-        <v>117.4</v>
+        <v>106.1</v>
       </c>
       <c r="D56" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003050_1/(lotInfo:info)", "21000005000000003050_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003057_1/(lotInfo:info)", "21000005000000003057_1")</f>
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>124</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
-      </c>
-      <c r="H56" s="3">
-        <v>8196431</v>
-      </c>
-      <c r="I56" s="3">
-        <v>69816.27768313458</v>
-      </c>
-      <c r="J56" s="4">
-        <v>10.39</v>
-      </c>
-      <c r="K56" s="4">
-        <v>4.13</v>
-      </c>
-      <c r="L56" s="3">
-        <v>712.41</v>
+        <v>184</v>
+      </c>
+      <c r="H56" s="4">
+        <v>9823000</v>
+      </c>
+      <c r="I56" s="4">
+        <v>92582.46936852027</v>
+      </c>
+      <c r="J56" s="5">
+        <v>20.21</v>
+      </c>
+      <c r="K56" s="5">
+        <v>10.31</v>
+      </c>
+      <c r="L56" s="4">
+        <v>2436.37</v>
       </c>
       <c r="M56">
-        <v>6721</v>
+        <v>4580</v>
       </c>
       <c r="N56">
-        <v>16920</v>
+        <v>8982</v>
       </c>
       <c r="O56">
-        <v>98</v>
-      </c>
-      <c r="P56" s="5">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="P56" s="6">
+        <v>400</v>
       </c>
       <c r="Q56" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R56" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S56" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.7912776, 37.7954093", "55.7912776, 37.7954093")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.008817, 37.206737", "56.008817, 37.206737")</f>
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.7912776_37.7954093.json", "55.7912776_37.7954093.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/56.008817_37.206737.json", "56.008817_37.206737.json")</f>
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="6">
+        <v>257</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="8">
         <v>55</v>
       </c>
       <c r="B57">
         <v>77</v>
       </c>
       <c r="C57" s="1">
-        <v>57.3</v>
+        <v>21.6</v>
       </c>
       <c r="D57" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003304_1/(lotInfo:info)", "21000005000000003304_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003175_1/(lotInfo:info)", "21000005000000003175_1")</f>
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G57" t="s">
-        <v>186</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4062000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>70890.05235602094</v>
-      </c>
-      <c r="J57" s="4">
-        <v>5.13</v>
-      </c>
-      <c r="K57" s="4">
-        <v>41.02</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2215.31</v>
+        <v>185</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2250000</v>
+      </c>
+      <c r="I57" s="4">
+        <v>104166.6666666667</v>
+      </c>
+      <c r="J57" s="5">
+        <v>17.81</v>
+      </c>
+      <c r="K57" s="5">
+        <v>11.58</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1554.72</v>
       </c>
       <c r="M57">
-        <v>13807</v>
+        <v>5850</v>
       </c>
       <c r="N57">
-        <v>1728</v>
+        <v>8994</v>
       </c>
       <c r="O57">
-        <v>32</v>
-      </c>
-      <c r="P57" s="5">
-        <v>600</v>
+        <v>67</v>
+      </c>
+      <c r="P57" s="6">
+        <v>100</v>
       </c>
       <c r="Q57" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S57" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.657311, 37.73058", "55.657311, 37.73058")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.985116, 37.149873", "55.985116, 37.149873")</f>
         <v>0</v>
       </c>
       <c r="T57" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.657311_37.73058.json", "55.657311_37.73058.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.985116_37.149873.json", "55.985116_37.149873.json")</f>
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="6">
+        <v>258</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="8">
         <v>56</v>
       </c>
       <c r="B58">
         <v>77</v>
       </c>
       <c r="C58" s="1">
-        <v>38.9</v>
+        <v>60.4</v>
       </c>
       <c r="D58" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002507_1/(lotInfo:info)", "21000005000000002507_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003130_1/(lotInfo:info)", "21000005000000003130_1")</f>
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
-      </c>
-      <c r="F58" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>187</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3268000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>84010.28277634962</v>
-      </c>
-      <c r="J58" s="4">
-        <v>7.55</v>
-      </c>
-      <c r="K58" s="4">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2545.76</v>
+        <v>186</v>
+      </c>
+      <c r="H58" s="4">
+        <v>6709000</v>
+      </c>
+      <c r="I58" s="4">
+        <v>111076.1589403973</v>
+      </c>
+      <c r="J58" s="5">
+        <v>13.55</v>
+      </c>
+      <c r="K58" s="5">
+        <v>6.93</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1068.04</v>
       </c>
       <c r="M58">
-        <v>11129</v>
+        <v>8197</v>
       </c>
       <c r="N58">
-        <v>9192</v>
+        <v>16035</v>
       </c>
       <c r="O58">
-        <v>33</v>
+        <v>104</v>
+      </c>
+      <c r="P58" s="6">
+        <v>200</v>
       </c>
       <c r="Q58" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R58" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S58" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.685158, 37.68641", "55.685158, 37.68641")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.79225, 37.812588", "55.79225, 37.812588")</f>
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.685158_37.68641.json", "55.685158_37.68641.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.79225_37.812588.json", "55.79225_37.812588.json")</f>
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="6">
+        <v>259</v>
+      </c>
+      <c r="V58" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="8">
         <v>57</v>
       </c>
       <c r="B59">
         <v>77</v>
       </c>
       <c r="C59" s="1">
-        <v>67.09999999999999</v>
+        <v>31.1</v>
       </c>
       <c r="D59" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002809_1/(lotInfo:info)", "21000005000000002809_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003403_1/(lotInfo:info)", "21000005000000003403_1")</f>
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" t="s">
-        <v>125</v>
+        <v>78</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6064000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>90372.5782414307</v>
-      </c>
-      <c r="J59" s="4">
-        <v>9.83</v>
-      </c>
-      <c r="K59" s="4">
-        <v>7.17</v>
-      </c>
-      <c r="L59" s="3">
-        <v>376.55</v>
+        <v>187</v>
+      </c>
+      <c r="H59" s="4">
+        <v>3685000</v>
+      </c>
+      <c r="I59" s="4">
+        <v>118488.7459807074</v>
+      </c>
+      <c r="J59" s="5">
+        <v>43.02</v>
+      </c>
+      <c r="K59" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="L59" s="4">
+        <v>4231.71</v>
       </c>
       <c r="M59">
-        <v>9190</v>
+        <v>2754</v>
       </c>
       <c r="N59">
-        <v>12602</v>
+        <v>9066</v>
       </c>
       <c r="O59">
-        <v>240</v>
-      </c>
-      <c r="P59" s="5">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="P59" s="6">
+        <v>400</v>
       </c>
       <c r="Q59" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R59" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S59" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.7645572, 37.6569216", "55.7645572, 37.6569216")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.545788, 37.519062", "55.545788, 37.519062")</f>
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.7645572_37.6569216.json", "55.7645572_37.6569216.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.545788_37.519062.json", "55.545788_37.519062.json")</f>
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="6">
+        <v>260</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="8">
         <v>58</v>
       </c>
       <c r="B60">
         <v>77</v>
       </c>
       <c r="C60" s="1">
-        <v>83.8</v>
+        <v>54.4</v>
       </c>
       <c r="D60" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003176_1/(lotInfo:info)", "21000005000000003176_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002687_1/(lotInfo:info)", "21000005000000002687_1")</f>
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" t="s">
-        <v>126</v>
+        <v>79</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G60" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" s="3">
-        <v>7621000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>90942.72076372315</v>
-      </c>
-      <c r="J60" s="4">
-        <v>13.02</v>
-      </c>
-      <c r="K60" s="4">
-        <v>10.04</v>
-      </c>
-      <c r="L60" s="3">
-        <v>745.4299999999999</v>
+        <v>188</v>
+      </c>
+      <c r="H60" s="4">
+        <v>6757000</v>
+      </c>
+      <c r="I60" s="4">
+        <v>124209.5588235294</v>
+      </c>
+      <c r="J60" s="5">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="K60" s="5">
+        <v>30.97</v>
+      </c>
+      <c r="L60" s="4">
+        <v>2760.2</v>
       </c>
       <c r="M60">
-        <v>6985</v>
+        <v>14986</v>
       </c>
       <c r="N60">
-        <v>9057</v>
+        <v>4011</v>
       </c>
       <c r="O60">
-        <v>122</v>
-      </c>
-      <c r="P60" s="5">
-        <v>200</v>
+        <v>45</v>
+      </c>
+      <c r="P60" s="6">
+        <v>700</v>
       </c>
       <c r="Q60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R60" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S60" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.993741, 37.210249", "55.993741, 37.210249")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.649144, 37.534918", "55.649144, 37.534918")</f>
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.993741_37.210249.json", "55.993741_37.210249.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.649144_37.534918.json", "55.649144_37.534918.json")</f>
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="6">
+        <v>261</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="8">
         <v>59</v>
       </c>
       <c r="B61">
         <v>77</v>
       </c>
       <c r="C61" s="1">
-        <v>106.1</v>
+        <v>39.7</v>
       </c>
       <c r="D61" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003057_1/(lotInfo:info)", "21000005000000003057_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003178_1/(lotInfo:info)", "21000005000000003178_1")</f>
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s">
-        <v>127</v>
+        <v>80</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>190</v>
-      </c>
-      <c r="H61" s="3">
-        <v>9823000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>92582.46936852027</v>
-      </c>
-      <c r="J61" s="4">
-        <v>20.21</v>
-      </c>
-      <c r="K61" s="4">
-        <v>10.31</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2436.37</v>
+        <v>189</v>
+      </c>
+      <c r="H61" s="4">
+        <v>5030000</v>
+      </c>
+      <c r="I61" s="4">
+        <v>126700.2518891688</v>
+      </c>
+      <c r="J61" s="5">
+        <v>11.43</v>
+      </c>
+      <c r="K61" s="5">
+        <v>15.16</v>
+      </c>
+      <c r="L61" s="4">
+        <v>2390.57</v>
       </c>
       <c r="M61">
-        <v>4580</v>
+        <v>11088</v>
       </c>
       <c r="N61">
-        <v>8982</v>
+        <v>8359</v>
       </c>
       <c r="O61">
-        <v>38</v>
-      </c>
-      <c r="P61" s="5">
-        <v>400</v>
+        <v>53</v>
+      </c>
+      <c r="P61" s="6">
+        <v>500</v>
       </c>
       <c r="Q61" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R61" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S61" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=56.008817, 37.206737", "56.008817, 37.206737")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.78462, 37.462784", "55.78462, 37.462784")</f>
         <v>0</v>
       </c>
       <c r="T61" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/56.008817_37.206737.json", "56.008817_37.206737.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.78462_37.462784.json", "55.78462_37.462784.json")</f>
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="6">
+        <v>262</v>
+      </c>
+      <c r="V61" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="8">
         <v>60</v>
       </c>
       <c r="B62">
         <v>77</v>
       </c>
       <c r="C62" s="1">
-        <v>21.6</v>
+        <v>19.4</v>
       </c>
       <c r="D62" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003175_1/(lotInfo:info)", "21000005000000003175_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003182_1/(lotInfo:info)", "21000005000000003182_1")</f>
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s">
-        <v>128</v>
+        <v>81</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2250000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>104166.6666666667</v>
-      </c>
-      <c r="J62" s="4">
-        <v>17.81</v>
-      </c>
-      <c r="K62" s="4">
-        <v>11.58</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1554.72</v>
+        <v>189</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2489000</v>
+      </c>
+      <c r="I62" s="4">
+        <v>128298.969072165</v>
+      </c>
+      <c r="J62" s="5">
+        <v>11.57</v>
+      </c>
+      <c r="K62" s="5">
+        <v>15.35</v>
+      </c>
+      <c r="L62" s="4">
+        <v>2420.72</v>
       </c>
       <c r="M62">
-        <v>5850</v>
+        <v>11088</v>
       </c>
       <c r="N62">
-        <v>8994</v>
+        <v>8359</v>
       </c>
       <c r="O62">
-        <v>67</v>
-      </c>
-      <c r="P62" s="5">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="P62" s="6">
+        <v>500</v>
       </c>
       <c r="Q62" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R62" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S62" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.985116, 37.149873", "55.985116, 37.149873")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.78462, 37.462784", "55.78462, 37.462784")</f>
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.985116_37.149873.json", "55.985116_37.149873.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.78462_37.462784.json", "55.78462_37.462784.json")</f>
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="6">
+        <v>263</v>
+      </c>
+      <c r="V62" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="8">
         <v>61</v>
       </c>
       <c r="B63">
         <v>77</v>
       </c>
       <c r="C63" s="1">
-        <v>47.2</v>
+        <v>22.8</v>
       </c>
       <c r="D63" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002573_1/(lotInfo:info)", "21000005000000002573_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003185_1/(lotInfo:info)", "21000005000000003185_1")</f>
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" t="s">
-        <v>121</v>
+        <v>82</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>192</v>
-      </c>
-      <c r="H63" s="3">
-        <v>5105000</v>
-      </c>
-      <c r="I63" s="3">
-        <v>108156.7796610169</v>
-      </c>
-      <c r="J63" s="4">
-        <v>10.88</v>
-      </c>
-      <c r="K63" s="4">
-        <v>6.54</v>
-      </c>
-      <c r="L63" s="3">
-        <v>354.61</v>
+        <v>190</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2930000</v>
+      </c>
+      <c r="I63" s="4">
+        <v>128508.7719298246</v>
+      </c>
+      <c r="J63" s="5">
+        <v>8.18</v>
+      </c>
+      <c r="K63" s="5">
+        <v>13.39</v>
+      </c>
+      <c r="L63" s="4">
+        <v>2039.81</v>
       </c>
       <c r="M63">
-        <v>9937</v>
+        <v>15713</v>
       </c>
       <c r="N63">
-        <v>16530</v>
+        <v>9595</v>
       </c>
       <c r="O63">
-        <v>305</v>
-      </c>
-      <c r="P63" s="5">
-        <v>100</v>
+        <v>63</v>
+      </c>
+      <c r="P63" s="6">
+        <v>700</v>
       </c>
       <c r="Q63" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R63" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S63" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.748701, 37.5857", "55.748701, 37.5857")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.642479, 37.540425", "55.642479, 37.540425")</f>
         <v>0</v>
       </c>
       <c r="T63" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.748701_37.5857.json", "55.748701_37.5857.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.642479_37.540425.json", "55.642479_37.540425.json")</f>
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" s="6">
+        <v>264</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="8">
         <v>62</v>
       </c>
       <c r="B64">
         <v>77</v>
       </c>
       <c r="C64" s="1">
-        <v>60.4</v>
+        <v>36.4</v>
       </c>
       <c r="D64" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003130_1/(lotInfo:info)", "21000005000000003130_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002958_1/(lotInfo:info)", "21000005000000002958_1")</f>
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
+        <v>83</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6709000</v>
-      </c>
-      <c r="I64" s="3">
-        <v>111076.1589403973</v>
-      </c>
-      <c r="J64" s="4">
-        <v>13.55</v>
-      </c>
-      <c r="K64" s="4">
-        <v>6.93</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1068.04</v>
+        <v>191</v>
+      </c>
+      <c r="H64" s="4">
+        <v>5090000</v>
+      </c>
+      <c r="I64" s="4">
+        <v>139835.1648351648</v>
+      </c>
+      <c r="J64" s="5">
+        <v>9.33</v>
+      </c>
+      <c r="K64" s="5">
+        <v>34.86</v>
+      </c>
+      <c r="L64" s="4">
+        <v>3107.44</v>
       </c>
       <c r="M64">
-        <v>8197</v>
+        <v>14986</v>
       </c>
       <c r="N64">
-        <v>16035</v>
+        <v>4011</v>
       </c>
       <c r="O64">
-        <v>104</v>
-      </c>
-      <c r="P64" s="5">
-        <v>200</v>
+        <v>45</v>
+      </c>
+      <c r="P64" s="6">
+        <v>700</v>
       </c>
       <c r="Q64" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R64" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S64" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.79225, 37.812588", "55.79225, 37.812588")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.649144, 37.534918", "55.649144, 37.534918")</f>
         <v>0</v>
       </c>
       <c r="T64" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.79225_37.812588.json", "55.79225_37.812588.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.649144_37.534918.json", "55.649144_37.534918.json")</f>
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="6">
+        <v>265</v>
+      </c>
+      <c r="V64" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="8">
         <v>63</v>
       </c>
       <c r="B65">
         <v>77</v>
       </c>
       <c r="C65" s="1">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="D65" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002687_1/(lotInfo:info)", "21000005000000002687_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002756_1/(lotInfo:info)", "21000005000000002756_1")</f>
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" t="s">
-        <v>125</v>
+        <v>84</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G65" t="s">
-        <v>194</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6757000</v>
-      </c>
-      <c r="I65" s="3">
-        <v>124209.5588235294</v>
-      </c>
-      <c r="J65" s="4">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="K65" s="4">
-        <v>30.97</v>
-      </c>
-      <c r="L65" s="3">
-        <v>2760.2</v>
+        <v>192</v>
+      </c>
+      <c r="H65" s="4">
+        <v>7868154</v>
+      </c>
+      <c r="I65" s="4">
+        <v>148176.1581920904</v>
+      </c>
+      <c r="J65" s="5">
+        <v>10.83</v>
+      </c>
+      <c r="K65" s="5">
+        <v>18.18</v>
+      </c>
+      <c r="L65" s="4">
+        <v>2211.58</v>
       </c>
       <c r="M65">
-        <v>14986</v>
+        <v>13683</v>
       </c>
       <c r="N65">
-        <v>4011</v>
+        <v>8151</v>
       </c>
       <c r="O65">
-        <v>45</v>
-      </c>
-      <c r="P65" s="5">
-        <v>700</v>
+        <v>67</v>
+      </c>
+      <c r="P65" s="6">
+        <v>100</v>
       </c>
       <c r="Q65" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="R65" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S65" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.649144, 37.534918", "55.649144, 37.534918")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.8738384, 37.5390459", "55.8738384, 37.5390459")</f>
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.649144_37.534918.json", "55.649144_37.534918.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.8738384_37.5390459.json", "55.8738384_37.5390459.json")</f>
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="6">
+        <v>266</v>
+      </c>
+      <c r="V65" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="8">
         <v>64</v>
       </c>
       <c r="B66">
         <v>77</v>
       </c>
       <c r="C66" s="1">
-        <v>39.7</v>
+        <v>35.9</v>
       </c>
       <c r="D66" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003178_1/(lotInfo:info)", "21000005000000003178_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003066_1/(lotInfo:info)", "21000005000000003066_1")</f>
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
+        <v>85</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5030000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>126700.2518891688</v>
-      </c>
-      <c r="J66" s="4">
-        <v>11.43</v>
-      </c>
-      <c r="K66" s="4">
-        <v>15.16</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2390.57</v>
+        <v>193</v>
+      </c>
+      <c r="H66" s="4">
+        <v>5349000</v>
+      </c>
+      <c r="I66" s="4">
+        <v>148997.2144846797</v>
+      </c>
+      <c r="J66" s="5">
+        <v>14.57</v>
+      </c>
+      <c r="K66" s="5">
+        <v>17.52</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1446.57</v>
       </c>
       <c r="M66">
-        <v>11088</v>
+        <v>10223</v>
       </c>
       <c r="N66">
-        <v>8359</v>
+        <v>8502</v>
       </c>
       <c r="O66">
-        <v>53</v>
-      </c>
-      <c r="P66" s="5">
-        <v>500</v>
+        <v>103</v>
+      </c>
+      <c r="P66" s="6">
+        <v>900</v>
       </c>
       <c r="Q66" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R66" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S66" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.78462, 37.462784", "55.78462, 37.462784")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.834153, 37.356441", "55.834153, 37.356441")</f>
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.78462_37.462784.json", "55.78462_37.462784.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.834153_37.356441.json", "55.834153_37.356441.json")</f>
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="6">
+        <v>267</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="8">
         <v>65</v>
       </c>
       <c r="B67">
         <v>77</v>
       </c>
       <c r="C67" s="1">
-        <v>19.4</v>
+        <v>13.3</v>
       </c>
       <c r="D67" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003182_1/(lotInfo:info)", "21000005000000003182_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002938_1/(lotInfo:info)", "21000005000000002938_1")</f>
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>195</v>
-      </c>
-      <c r="H67" s="3">
-        <v>2489000</v>
-      </c>
-      <c r="I67" s="3">
-        <v>128298.969072165</v>
-      </c>
-      <c r="J67" s="4">
-        <v>11.57</v>
-      </c>
-      <c r="K67" s="4">
-        <v>15.35</v>
-      </c>
-      <c r="L67" s="3">
-        <v>2420.72</v>
+        <v>194</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2127000</v>
+      </c>
+      <c r="I67" s="4">
+        <v>159924.8120300752</v>
+      </c>
+      <c r="J67" s="5">
+        <v>15.31</v>
+      </c>
+      <c r="K67" s="5">
+        <v>27.56</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1080.57</v>
       </c>
       <c r="M67">
-        <v>11088</v>
+        <v>10445</v>
       </c>
       <c r="N67">
-        <v>8359</v>
+        <v>5802</v>
       </c>
       <c r="O67">
-        <v>53</v>
-      </c>
-      <c r="P67" s="5">
-        <v>500</v>
+        <v>148</v>
+      </c>
+      <c r="P67" s="6">
+        <v>100</v>
       </c>
       <c r="Q67" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R67" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S67" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.78462, 37.462784", "55.78462, 37.462784")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.816696, 37.50204", "55.816696, 37.50204")</f>
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.78462_37.462784.json", "55.78462_37.462784.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.816696_37.50204.json", "55.816696_37.50204.json")</f>
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="8">
         <v>66</v>
       </c>
       <c r="B68">
         <v>77</v>
       </c>
       <c r="C68" s="1">
-        <v>22.8</v>
+        <v>11.1</v>
       </c>
       <c r="D68" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003185_1/(lotInfo:info)", "21000005000000003185_1")</f>
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003414_1/(lotInfo:info)", "21000005000000003414_1")</f>
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" t="s">
-        <v>124</v>
+        <v>87</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G68" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2492000</v>
+      </c>
+      <c r="I68" s="4">
+        <v>224504.5045045045</v>
+      </c>
+      <c r="J68" s="5">
+        <v>26.98</v>
+      </c>
+      <c r="K68" s="5">
+        <v>18.63</v>
+      </c>
+      <c r="L68" s="4">
+        <v>726.55</v>
+      </c>
+      <c r="M68">
+        <v>8321</v>
+      </c>
+      <c r="N68">
+        <v>12050</v>
+      </c>
+      <c r="O68">
+        <v>309</v>
+      </c>
+      <c r="P68" s="6">
+        <v>400</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>200</v>
+      </c>
+      <c r="R68" t="s">
+        <v>202</v>
+      </c>
+      <c r="S68" s="2">
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.757171, 37.602076", "55.757171, 37.602076")</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.757171_37.602076.json", "55.757171_37.602076.json")</f>
+        <v>0</v>
+      </c>
+      <c r="U68" t="s">
+        <v>269</v>
+      </c>
+      <c r="V68" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>91</v>
+      </c>
+      <c r="C69" s="1">
+        <v>451.7</v>
+      </c>
+      <c r="D69" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000138010000000002_1/(lotInfo:info)", "22000138010000000002_1")</f>
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="3">
-        <v>2930000</v>
-      </c>
-      <c r="I68" s="3">
-        <v>128508.7719298246</v>
-      </c>
-      <c r="J68" s="4">
-        <v>8.18</v>
-      </c>
-      <c r="K68" s="4">
-        <v>13.39</v>
-      </c>
-      <c r="L68" s="3">
-        <v>2039.81</v>
-      </c>
-      <c r="M68">
-        <v>15713</v>
-      </c>
-      <c r="N68">
-        <v>9595</v>
-      </c>
-      <c r="O68">
-        <v>63</v>
-      </c>
-      <c r="P68" s="5">
-        <v>700</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>205</v>
-      </c>
-      <c r="R68" t="s">
-        <v>207</v>
-      </c>
-      <c r="S68" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.642479, 37.540425", "55.642479, 37.540425")</f>
-        <v>0</v>
-      </c>
-      <c r="T68" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.642479_37.540425.json", "55.642479_37.540425.json")</f>
-        <v>0</v>
-      </c>
-      <c r="U68" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="6">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>77</v>
-      </c>
-      <c r="C69" s="1">
-        <v>36.4</v>
-      </c>
-      <c r="D69" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002958_1/(lotInfo:info)", "21000005000000002958_1")</f>
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="H69" s="4">
+        <v>1437000</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3181.315032100952</v>
+      </c>
+      <c r="K69" s="5">
+        <v>5.47</v>
+      </c>
+      <c r="L69" s="4">
+        <v>3181</v>
+      </c>
+      <c r="N69">
+        <v>582</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>200</v>
+      </c>
+      <c r="R69" t="s">
+        <v>202</v>
+      </c>
+      <c r="S69" s="2">
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=45.131196, 34.995957", "45.131196, 34.995957")</f>
+        <v>0</v>
+      </c>
+      <c r="T69" s="2">
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/45.131196_34.995957.json", "45.131196_34.995957.json")</f>
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>91</v>
+      </c>
+      <c r="C70" s="1">
+        <v>137.3</v>
+      </c>
+      <c r="D70" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000138010000000002_2/(lotInfo:info)", "22000138010000000002_2")</f>
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>197</v>
       </c>
-      <c r="H69" s="3">
-        <v>5090000</v>
-      </c>
-      <c r="I69" s="3">
-        <v>139835.1648351648</v>
-      </c>
-      <c r="J69" s="4">
-        <v>9.33</v>
-      </c>
-      <c r="K69" s="4">
-        <v>34.86</v>
-      </c>
-      <c r="L69" s="3">
-        <v>3107.44</v>
-      </c>
-      <c r="M69">
-        <v>14986</v>
-      </c>
-      <c r="N69">
-        <v>4011</v>
-      </c>
-      <c r="O69">
-        <v>45</v>
-      </c>
-      <c r="P69" s="5">
-        <v>700</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>206</v>
-      </c>
-      <c r="R69" t="s">
-        <v>207</v>
-      </c>
-      <c r="S69" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.649144, 37.534918", "55.649144, 37.534918")</f>
-        <v>0</v>
-      </c>
-      <c r="T69" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.649144_37.534918.json", "55.649144_37.534918.json")</f>
-        <v>0</v>
-      </c>
-      <c r="U69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="6">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>77</v>
-      </c>
-      <c r="C70" s="1">
-        <v>53.1</v>
-      </c>
-      <c r="D70" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002756_1/(lotInfo:info)", "21000005000000002756_1")</f>
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" t="s">
-        <v>120</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" s="4">
+        <v>807000</v>
+      </c>
+      <c r="I70" s="4">
+        <v>5877.640203932993</v>
+      </c>
+      <c r="K70" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="N70">
+        <v>498</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>200</v>
+      </c>
+      <c r="R70" t="s">
+        <v>202</v>
+      </c>
+      <c r="S70" s="2">
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=45.27548, 35.208372", "45.27548, 35.208372")</f>
+        <v>0</v>
+      </c>
+      <c r="U70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>91</v>
+      </c>
+      <c r="C71" s="1">
+        <v>39.3</v>
+      </c>
+      <c r="D71" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000057550000000008_1/(lotInfo:info)", "22000057550000000008_1")</f>
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
         <v>198</v>
       </c>
-      <c r="H70" s="3">
-        <v>7868154</v>
-      </c>
-      <c r="I70" s="3">
-        <v>148176.1581920904</v>
-      </c>
-      <c r="J70" s="4">
-        <v>10.83</v>
-      </c>
-      <c r="K70" s="4">
-        <v>18.18</v>
-      </c>
-      <c r="L70" s="3">
-        <v>2211.58</v>
-      </c>
-      <c r="M70">
-        <v>13683</v>
-      </c>
-      <c r="N70">
-        <v>8151</v>
-      </c>
-      <c r="O70">
-        <v>67</v>
-      </c>
-      <c r="P70" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>205</v>
-      </c>
-      <c r="R70" t="s">
-        <v>207</v>
-      </c>
-      <c r="S70" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.8738384, 37.5390459", "55.8738384, 37.5390459")</f>
-        <v>0</v>
-      </c>
-      <c r="T70" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.8738384_37.5390459.json", "55.8738384_37.5390459.json")</f>
-        <v>0</v>
-      </c>
-      <c r="U70" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" s="6">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>77</v>
-      </c>
-      <c r="C71" s="1">
-        <v>35.9</v>
-      </c>
-      <c r="D71" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000003066_1/(lotInfo:info)", "21000005000000003066_1")</f>
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" s="4">
+        <v>1199532</v>
+      </c>
+      <c r="I71" s="4">
+        <v>30522.44274809161</v>
+      </c>
+      <c r="K71" s="5">
+        <v>41.36</v>
+      </c>
+      <c r="N71">
+        <v>738</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>201</v>
+      </c>
+      <c r="R71" t="s">
+        <v>202</v>
+      </c>
+      <c r="S71" s="2">
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=45.349588, 34.18767", "45.349588, 34.18767")</f>
+        <v>0</v>
+      </c>
+      <c r="U71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D72" s="2">
+        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000018250000000018_2/(lotInfo:info)", "21000018250000000018_2")</f>
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
         <v>199</v>
       </c>
-      <c r="H71" s="3">
-        <v>5349000</v>
-      </c>
-      <c r="I71" s="3">
-        <v>148997.2144846797</v>
-      </c>
-      <c r="J71" s="4">
-        <v>14.57</v>
-      </c>
-      <c r="K71" s="4">
-        <v>17.52</v>
-      </c>
-      <c r="L71" s="3">
-        <v>1446.57</v>
-      </c>
-      <c r="M71">
-        <v>10223</v>
-      </c>
-      <c r="N71">
-        <v>8502</v>
-      </c>
-      <c r="O71">
-        <v>103</v>
-      </c>
-      <c r="P71" s="5">
-        <v>900</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>205</v>
-      </c>
-      <c r="R71" t="s">
-        <v>207</v>
-      </c>
-      <c r="S71" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.834153, 37.356441", "55.834153, 37.356441")</f>
-        <v>0</v>
-      </c>
-      <c r="T71" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.834153_37.356441.json", "55.834153_37.356441.json")</f>
-        <v>0</v>
-      </c>
-      <c r="U71" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" s="6">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>77</v>
-      </c>
-      <c r="C72" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="D72" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000005000000002938_1/(lotInfo:info)", "21000005000000002938_1")</f>
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" t="s">
-        <v>130</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" s="4">
+        <v>1932000</v>
+      </c>
+      <c r="I72" s="4">
+        <v>86636.77130044842</v>
+      </c>
+      <c r="K72" s="5">
+        <v>11.35</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1203.28</v>
+      </c>
+      <c r="N72">
+        <v>7635</v>
+      </c>
+      <c r="O72">
+        <v>72</v>
+      </c>
+      <c r="P72" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q72" t="s">
         <v>200</v>
       </c>
-      <c r="H72" s="3">
-        <v>2127000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>159924.8120300752</v>
-      </c>
-      <c r="J72" s="4">
-        <v>15.31</v>
-      </c>
-      <c r="K72" s="4">
-        <v>27.56</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1080.57</v>
-      </c>
-      <c r="M72">
-        <v>10445</v>
-      </c>
-      <c r="N72">
-        <v>5802</v>
-      </c>
-      <c r="O72">
-        <v>148</v>
-      </c>
-      <c r="P72" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>205</v>
-      </c>
       <c r="R72" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="S72" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=55.816696, 37.50204", "55.816696, 37.50204")</f>
+        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=44.956032, 34.100192", "44.956032, 34.100192")</f>
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/55.816696_37.50204.json", "55.816696_37.50204.json")</f>
+        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/44.956032_34.100192.json", "44.956032_34.100192.json")</f>
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="6">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>91</v>
-      </c>
-      <c r="C73" s="1">
-        <v>451.7</v>
-      </c>
-      <c r="D73" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000138010000000002_1/(lotInfo:info)", "22000138010000000002_1")</f>
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" t="s">
-        <v>131</v>
-      </c>
-      <c r="G73" t="s">
-        <v>201</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1437000</v>
-      </c>
-      <c r="I73" s="3">
-        <v>3181.315032100952</v>
-      </c>
-      <c r="K73" s="4">
-        <v>4.35</v>
-      </c>
-      <c r="L73" s="3">
-        <v>3181</v>
-      </c>
-      <c r="N73">
-        <v>732</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73" s="5">
-        <v>200</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>205</v>
-      </c>
-      <c r="R73" t="s">
-        <v>207</v>
-      </c>
-      <c r="S73" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=45.129294, 34.99603", "45.129294, 34.99603")</f>
-        <v>0</v>
-      </c>
-      <c r="T73" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/45.129294_34.99603.json", "45.129294_34.99603.json")</f>
-        <v>0</v>
-      </c>
-      <c r="U73" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
-      <c r="A74" s="6">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>91</v>
-      </c>
-      <c r="C74" s="1">
-        <v>137.3</v>
-      </c>
-      <c r="D74" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000138010000000002_2/(lotInfo:info)", "22000138010000000002_2")</f>
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G74" t="s">
-        <v>202</v>
-      </c>
-      <c r="H74" s="3">
-        <v>807000</v>
-      </c>
-      <c r="I74" s="3">
-        <v>5877.640203932993</v>
-      </c>
-      <c r="K74" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="N74">
-        <v>498</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" s="5">
-        <v>200</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>205</v>
-      </c>
-      <c r="R74" t="s">
-        <v>207</v>
-      </c>
-      <c r="S74" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=45.27548, 35.208372", "45.27548, 35.208372")</f>
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" s="6">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>91</v>
-      </c>
-      <c r="C75" s="1">
-        <v>39.3</v>
-      </c>
-      <c r="D75" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/22000057550000000008_1/(lotInfo:info)", "22000057550000000008_1")</f>
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" t="s">
-        <v>203</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1199532</v>
-      </c>
-      <c r="I75" s="3">
-        <v>30522.44274809161</v>
-      </c>
-      <c r="K75" s="4">
-        <v>41.36</v>
-      </c>
-      <c r="N75">
-        <v>738</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>206</v>
-      </c>
-      <c r="R75" t="s">
-        <v>207</v>
-      </c>
-      <c r="S75" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=45.349588, 34.18767", "45.349588, 34.18767")</f>
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="6">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>91</v>
-      </c>
-      <c r="C76" s="1">
-        <v>22.3</v>
-      </c>
-      <c r="D76" s="2">
-        <f>HYPERLINK("https://torgi.gov.ru/new/public/lots/lot/21000018250000000018_2/(lotInfo:info)", "21000018250000000018_2")</f>
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>94</v>
-      </c>
-      <c r="F76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>204</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1932000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>86636.77130044842</v>
-      </c>
-      <c r="K76" s="4">
-        <v>11.35</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1203.28</v>
-      </c>
-      <c r="N76">
-        <v>7635</v>
-      </c>
-      <c r="O76">
-        <v>72</v>
-      </c>
-      <c r="P76" s="5">
-        <v>300</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>205</v>
-      </c>
-      <c r="R76" t="s">
-        <v>208</v>
-      </c>
-      <c r="S76" s="2">
-        <f>HYPERLINK("https://yandex.ru/maps/?&amp;text=44.956032, 34.100192", "44.956032, 34.100192")</f>
-        <v>0</v>
-      </c>
-      <c r="T76" s="2">
-        <f>HYPERLINK("D:\torgi_project\venv_torgi\cache\objs_in_district/44.956032_34.100192.json", "44.956032_34.100192.json")</f>
-        <v>0</v>
-      </c>
-      <c r="U76" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1000"/>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="nextWeek">
+      <formula>AND(ROUNDDOWN(F1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(F1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="1" priority="5" timePeriod="thisWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(F1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(F1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1000">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0.1</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",Q1)))</formula>
